--- a/BackTest/2019-11-01 BackTest LBA.xlsx
+++ b/BackTest/2019-11-01 BackTest LBA.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-11.11111111111129</v>
+      </c>
       <c r="L12" t="n">
         <v>21.86</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111093</v>
+      </c>
       <c r="L13" t="n">
         <v>21.84</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.099999999999998</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-11.11111111111093</v>
+      </c>
       <c r="L14" t="n">
         <v>21.83</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.285714285714</v>
+      </c>
       <c r="L15" t="n">
         <v>21.81</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>21.81</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>38.46153846153855</v>
+      </c>
       <c r="L17" t="n">
         <v>21.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.199999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>50.0000000000003</v>
+      </c>
       <c r="L18" t="n">
         <v>21.95</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>21.95</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.899999999999995</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-5.263157894736744</v>
+      </c>
       <c r="L20" t="n">
         <v>21.94</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.899999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-5.263157894736744</v>
+      </c>
       <c r="L21" t="n">
         <v>21.93</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.899999999999995</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>21.92</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.999999999999993</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.448275862069024</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L23" t="n">
         <v>21.93</v>
@@ -1466,7 +1488,7 @@
         <v>2.999999999999993</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L24" t="n">
         <v>21.94</v>
@@ -1515,7 +1537,7 @@
         <v>3.099999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>3.448275862069024</v>
+        <v>22.22222222222218</v>
       </c>
       <c r="L25" t="n">
         <v>21.97</v>
@@ -1564,7 +1586,7 @@
         <v>3.199999999999996</v>
       </c>
       <c r="K26" t="n">
-        <v>11.11111111111102</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L26" t="n">
         <v>22</v>
@@ -1613,7 +1635,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K27" t="n">
-        <v>14.28571428571425</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L27" t="n">
         <v>21.95</v>
@@ -1662,7 +1684,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L28" t="n">
         <v>21.9</v>
@@ -1711,7 +1733,7 @@
         <v>3.499999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>12.00000000000005</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L29" t="n">
         <v>21.93</v>
@@ -1760,7 +1782,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>18.51851851851855</v>
+        <v>74.99999999999967</v>
       </c>
       <c r="L30" t="n">
         <v>21.99</v>
@@ -1809,7 +1831,7 @@
         <v>3.699999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>18.51851851851855</v>
+        <v>74.99999999999967</v>
       </c>
       <c r="L31" t="n">
         <v>22.05</v>
@@ -1860,7 +1882,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>24.13793103448287</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L32" t="n">
         <v>22.13</v>
@@ -1911,7 +1933,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>28.57142857142859</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L33" t="n">
         <v>22.2</v>
@@ -1962,7 +1984,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>33.33333333333333</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L34" t="n">
         <v>22.29</v>
@@ -2013,7 +2035,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K35" t="n">
-        <v>41.93548387096779</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
         <v>22.39</v>
@@ -2064,7 +2086,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>41.93548387096763</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L36" t="n">
         <v>22.49</v>
@@ -2115,7 +2137,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>22.54</v>
@@ -2166,7 +2188,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>16.12903225806451</v>
+        <v>44.44444444444446</v>
       </c>
       <c r="L38" t="n">
         <v>22.64</v>
@@ -2217,7 +2239,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>44.00000000000006</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L39" t="n">
         <v>22.72</v>
@@ -2268,7 +2290,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>49.99999999999993</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L40" t="n">
         <v>22.78</v>
@@ -2319,7 +2341,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>49.99999999999993</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L41" t="n">
         <v>22.84</v>
@@ -2370,7 +2392,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>49.99999999999993</v>
+        <v>28.5714285714285</v>
       </c>
       <c r="L42" t="n">
         <v>22.88</v>
@@ -2421,7 +2443,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>41.66666666666657</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L43" t="n">
         <v>22.91</v>
@@ -2472,7 +2494,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>41.66666666666657</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L44" t="n">
         <v>22.92</v>
@@ -2523,7 +2545,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L45" t="n">
         <v>22.9</v>
@@ -2574,7 +2596,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L46" t="n">
         <v>22.88</v>
@@ -2625,7 +2647,7 @@
         <v>5.599999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>30.43478260869561</v>
+        <v>-100</v>
       </c>
       <c r="L47" t="n">
         <v>22.9</v>
@@ -2676,7 +2698,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>35.99999999999994</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L48" t="n">
         <v>22.89</v>
@@ -2727,7 +2749,7 @@
         <v>5.899999999999995</v>
       </c>
       <c r="K49" t="n">
-        <v>25.00000000000007</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>22.87</v>
@@ -2778,7 +2800,7 @@
         <v>5.899999999999995</v>
       </c>
       <c r="K50" t="n">
-        <v>18.18181818181829</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>22.85</v>
@@ -2829,7 +2851,7 @@
         <v>5.899999999999995</v>
       </c>
       <c r="K51" t="n">
-        <v>18.18181818181829</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>22.83</v>
@@ -2880,7 +2902,7 @@
         <v>5.999999999999993</v>
       </c>
       <c r="K52" t="n">
-        <v>14.28571428571419</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>22.82</v>
@@ -2931,7 +2953,7 @@
         <v>6.199999999999992</v>
       </c>
       <c r="K53" t="n">
-        <v>4.347826086956442</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L53" t="n">
         <v>22.8</v>
@@ -2982,7 +3004,7 @@
         <v>6.499999999999993</v>
       </c>
       <c r="K54" t="n">
-        <v>-16.66666666666679</v>
+        <v>-40.00000000000036</v>
       </c>
       <c r="L54" t="n">
         <v>22.75</v>
@@ -3033,7 +3055,7 @@
         <v>6.799999999999994</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>22.74</v>
@@ -3084,7 +3106,7 @@
         <v>7.099999999999994</v>
       </c>
       <c r="K56" t="n">
-        <v>-18.51851851851855</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L56" t="n">
         <v>22.71</v>
@@ -3135,7 +3157,7 @@
         <v>7.099999999999994</v>
       </c>
       <c r="K57" t="n">
-        <v>-4.347826086956589</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L57" t="n">
         <v>22.68</v>
@@ -3186,7 +3208,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L58" t="n">
         <v>22.65</v>
@@ -3237,7 +3259,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K59" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L59" t="n">
         <v>22.63</v>
@@ -3288,7 +3310,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L60" t="n">
         <v>22.61</v>
@@ -3339,7 +3361,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>-19.99999999999993</v>
+        <v>-23.07692307692279</v>
       </c>
       <c r="L61" t="n">
         <v>22.59</v>
@@ -3390,7 +3412,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-23.8095238095238</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L62" t="n">
         <v>22.54999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>7.5</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571414</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L63" t="n">
         <v>22.54</v>
@@ -3492,7 +3514,7 @@
         <v>7.5</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571414</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L64" t="n">
         <v>22.56</v>
@@ -3543,7 +3565,7 @@
         <v>7.5</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.999999999999947</v>
+        <v>50</v>
       </c>
       <c r="L65" t="n">
         <v>22.54999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>7.5</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.263157894736723</v>
+        <v>50</v>
       </c>
       <c r="L66" t="n">
         <v>22.56999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>7.600000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.999999999999947</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>22.57999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>-43.99999999999985</v>
+        <v>-79.99999999999979</v>
       </c>
       <c r="L68" t="n">
         <v>22.49999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>8.600000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>-25.92592592592584</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L69" t="n">
         <v>22.45</v>
@@ -3798,7 +3820,7 @@
         <v>9.000000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>-35.48387096774188</v>
+        <v>-52.94117647058816</v>
       </c>
       <c r="L70" t="n">
         <v>22.35999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>9.300000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.52941176470584</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L71" t="n">
         <v>22.29999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>9.400000000000006</v>
       </c>
       <c r="K72" t="n">
-        <v>-23.52941176470571</v>
+        <v>-26.31578947368413</v>
       </c>
       <c r="L72" t="n">
         <v>22.25999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>9.600000000000009</v>
       </c>
       <c r="K73" t="n">
-        <v>-23.52941176470579</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>22.18999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>9.800000000000008</v>
       </c>
       <c r="K74" t="n">
-        <v>-21.21212121212109</v>
+        <v>-39.13043478260865</v>
       </c>
       <c r="L74" t="n">
         <v>22.09999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-21.21212121212109</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L75" t="n">
         <v>22.04</v>
@@ -4104,7 +4126,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-9.67741935483857</v>
+        <v>-15.38461538461528</v>
       </c>
       <c r="L76" t="n">
         <v>21.98999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-3.030303030302952</v>
+        <v>23.80952380952371</v>
       </c>
       <c r="L77" t="n">
         <v>21.97</v>
@@ -4206,7 +4228,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.677419354838696</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L78" t="n">
         <v>22.02</v>
@@ -4257,7 +4279,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>-9.677419354838696</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L79" t="n">
         <v>22.04</v>
@@ -4308,7 +4330,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>-9.677419354838696</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L80" t="n">
         <v>22.1</v>
@@ -4359,7 +4381,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.50000000000001</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L81" t="n">
         <v>22.12</v>
@@ -4410,7 +4432,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>-9.677419354838696</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>22.13</v>
@@ -4461,7 +4483,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.677419354838696</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L83" t="n">
         <v>22.17</v>
@@ -4512,7 +4534,7 @@
         <v>10.60000000000001</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.677419354838696</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L84" t="n">
         <v>22.23</v>
@@ -4563,7 +4585,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L85" t="n">
         <v>22.29</v>
@@ -4614,7 +4636,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L86" t="n">
         <v>22.34</v>
@@ -4665,7 +4687,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>3.030303030303063</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L87" t="n">
         <v>22.37</v>
@@ -4716,7 +4738,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>30.76923076923065</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L88" t="n">
         <v>22.4</v>
@@ -4767,7 +4789,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K89" t="n">
-        <v>16.66666666666652</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L89" t="n">
         <v>22.41999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>39.99999999999982</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L90" t="n">
         <v>22.43999999999999</v>
@@ -4869,7 +4891,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>29.41176470588218</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L91" t="n">
         <v>22.47</v>
@@ -4920,7 +4942,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>36.84210526315768</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L92" t="n">
         <v>22.53</v>
@@ -4971,7 +4993,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K93" t="n">
-        <v>52.94117647058816</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L93" t="n">
         <v>22.58</v>
@@ -5022,7 +5044,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K94" t="n">
-        <v>62.49999999999967</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L94" t="n">
         <v>22.62</v>
@@ -5073,7 +5095,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K95" t="n">
-        <v>57.14285714285682</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L95" t="n">
         <v>22.64</v>
@@ -5124,7 +5146,7 @@
         <v>11.50000000000002</v>
       </c>
       <c r="K96" t="n">
-        <v>53.84615384615346</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L96" t="n">
         <v>22.66</v>
@@ -5175,7 +5197,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>6.666666666666478</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L97" t="n">
         <v>22.64</v>
@@ -5226,7 +5248,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K98" t="n">
-        <v>17.64705882352931</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L98" t="n">
         <v>22.64</v>
@@ -5277,7 +5299,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>17.64705882352931</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L99" t="n">
         <v>22.65</v>
@@ -5328,7 +5350,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>17.64705882352931</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L100" t="n">
         <v>22.66</v>
@@ -5379,7 +5401,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>29.41176470588218</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L101" t="n">
         <v>22.68</v>
@@ -5430,7 +5452,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>33.3333333333332</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>22.68</v>
@@ -5481,7 +5503,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>15.78947368421049</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L103" t="n">
         <v>22.66</v>
@@ -5532,7 +5554,7 @@
         <v>13.00000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>33.33333333333324</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>22.7</v>
@@ -5583,7 +5605,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>35.99999999999984</v>
+        <v>36.84210526315781</v>
       </c>
       <c r="L105" t="n">
         <v>22.77</v>
@@ -5634,7 +5656,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>21.42857142857129</v>
+        <v>44.44444444444446</v>
       </c>
       <c r="L106" t="n">
         <v>22.81</v>
@@ -5685,7 +5707,7 @@
         <v>14.00000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>29.032258064516</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L107" t="n">
         <v>22.91999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>24.99999999999983</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L108" t="n">
         <v>22.99999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>29.032258064516</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L109" t="n">
         <v>23.07999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>33.33333333333326</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L110" t="n">
         <v>23.18</v>
@@ -5889,7 +5911,7 @@
         <v>14.50000000000002</v>
       </c>
       <c r="K111" t="n">
-        <v>37.14285714285705</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L111" t="n">
         <v>23.29</v>
@@ -5940,7 +5962,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K112" t="n">
-        <v>35.29411764705871</v>
+        <v>63.63636363636349</v>
       </c>
       <c r="L112" t="n">
         <v>23.41</v>
@@ -5991,7 +6013,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>37.14285714285705</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L113" t="n">
         <v>23.56</v>
@@ -6042,7 +6064,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>45.94594594594585</v>
+        <v>52.94117647058806</v>
       </c>
       <c r="L114" t="n">
         <v>23.69</v>
@@ -6093,7 +6115,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>44.44444444444432</v>
+        <v>85.71428571428554</v>
       </c>
       <c r="L115" t="n">
         <v>23.78</v>
@@ -6144,7 +6166,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>48.71794871794861</v>
+        <v>85.71428571428554</v>
       </c>
       <c r="L116" t="n">
         <v>23.93</v>
@@ -6195,7 +6217,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>65.71428571428567</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>24.05</v>
@@ -6246,7 +6268,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>66.6666666666666</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>24.21</v>
@@ -6297,7 +6319,7 @@
         <v>16.00000000000002</v>
       </c>
       <c r="K119" t="n">
-        <v>69.23076923076917</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>24.4</v>
@@ -6348,7 +6370,7 @@
         <v>16.10000000000002</v>
       </c>
       <c r="K120" t="n">
-        <v>69.99999999999993</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>24.58</v>
@@ -6399,7 +6421,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K121" t="n">
-        <v>71.42857142857139</v>
+        <v>100</v>
       </c>
       <c r="L121" t="n">
         <v>24.77</v>
@@ -6450,7 +6472,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>62.79069767441858</v>
+        <v>77.77777777777783</v>
       </c>
       <c r="L122" t="n">
         <v>24.92</v>
@@ -6501,7 +6523,7 @@
         <v>17.10000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>73.91304347826082</v>
+        <v>80.00000000000007</v>
       </c>
       <c r="L123" t="n">
         <v>25.11</v>
@@ -6552,7 +6574,7 @@
         <v>17.80000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>74.99999999999994</v>
+        <v>85.18518518518523</v>
       </c>
       <c r="L124" t="n">
         <v>25.34</v>
@@ -6603,7 +6625,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>76.92307692307688</v>
+        <v>87.50000000000004</v>
       </c>
       <c r="L125" t="n">
         <v>25.65</v>
@@ -6654,7 +6676,7 @@
         <v>19.30000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>64.28571428571429</v>
+        <v>53.8461538461539</v>
       </c>
       <c r="L126" t="n">
         <v>25.86</v>
@@ -6705,7 +6727,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>59.25925925925922</v>
+        <v>45.94594594594594</v>
       </c>
       <c r="L127" t="n">
         <v>26.06</v>
@@ -6756,7 +6778,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>62.26415094339623</v>
+        <v>41.17647058823527</v>
       </c>
       <c r="L128" t="n">
         <v>26.23</v>
@@ -6807,7 +6829,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>62.26415094339623</v>
+        <v>39.39393939393941</v>
       </c>
       <c r="L129" t="n">
         <v>26.37</v>
@@ -6858,7 +6880,7 @@
         <v>20.80000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>26.15384615384616</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L130" t="n">
         <v>26.36</v>
@@ -6909,7 +6931,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>26.15384615384616</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>26.34</v>
@@ -6960,7 +6982,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>9.859154929577457</v>
+        <v>-27.65957446808513</v>
       </c>
       <c r="L132" t="n">
         <v>26.26</v>
@@ -7011,7 +7033,7 @@
         <v>22.90000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>20.98765432098765</v>
+        <v>-17.64705882352938</v>
       </c>
       <c r="L133" t="n">
         <v>26.24</v>
@@ -7062,7 +7084,7 @@
         <v>24.00000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>3.370786516853939</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L134" t="n">
         <v>26.04</v>
@@ -7113,7 +7135,7 @@
         <v>24.20000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>1.098901098901115</v>
+        <v>-46.93877551020408</v>
       </c>
       <c r="L135" t="n">
         <v>25.74</v>
@@ -7164,7 +7186,7 @@
         <v>24.50000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-5.494505494505494</v>
+        <v>-49.01960784313724</v>
       </c>
       <c r="L136" t="n">
         <v>25.48</v>
@@ -7215,7 +7237,7 @@
         <v>25.10000000000003</v>
       </c>
       <c r="K137" t="n">
-        <v>1.030927835051561</v>
+        <v>-33.33333333333329</v>
       </c>
       <c r="L137" t="n">
         <v>25.29</v>
@@ -7266,7 +7288,7 @@
         <v>25.40000000000003</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.154639175257731</v>
+        <v>-36.66666666666663</v>
       </c>
       <c r="L138" t="n">
         <v>25.07</v>
@@ -7317,7 +7339,7 @@
         <v>25.80000000000003</v>
       </c>
       <c r="K139" t="n">
-        <v>-12.24489795918366</v>
+        <v>-23.99999999999997</v>
       </c>
       <c r="L139" t="n">
         <v>24.81000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>25.90000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>-12.24489795918366</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L140" t="n">
         <v>24.70000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>25.90000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>-15.78947368421053</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L141" t="n">
         <v>24.57</v>
@@ -7470,7 +7492,7 @@
         <v>26.00000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>-14.89361702127658</v>
+        <v>-54.83870967741937</v>
       </c>
       <c r="L142" t="n">
         <v>24.51000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>26.50000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>-14.89361702127658</v>
+        <v>-3.99999999999992</v>
       </c>
       <c r="L143" t="n">
         <v>24.39000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>26.80000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-20.00000000000001</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L144" t="n">
         <v>24.41000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>27.30000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>-35.63218390804601</v>
+        <v>7.142857142857134</v>
       </c>
       <c r="L145" t="n">
         <v>24.40000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>-22.35294117647062</v>
+        <v>3.703703703703635</v>
       </c>
       <c r="L146" t="n">
         <v>24.47000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>27.80000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>-21.42857142857145</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L147" t="n">
         <v>24.48</v>
@@ -7776,7 +7798,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>-27.47252747252749</v>
+        <v>3.703703703703635</v>
       </c>
       <c r="L148" t="n">
         <v>24.45</v>
@@ -7827,7 +7849,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-27.47252747252749</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>24.46</v>
@@ -7878,7 +7900,7 @@
         <v>28.70000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-11.39240506329117</v>
+        <v>7.142857142857134</v>
       </c>
       <c r="L150" t="n">
         <v>24.48</v>
@@ -7929,7 +7951,7 @@
         <v>28.80000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.38461538461539</v>
+        <v>7.142857142857134</v>
       </c>
       <c r="L151" t="n">
         <v>24.49</v>
@@ -7980,7 +8002,7 @@
         <v>29.00000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.333333333333313</v>
+        <v>-20.00000000000006</v>
       </c>
       <c r="L152" t="n">
         <v>24.49000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>29.10000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-25.8064516129033</v>
+        <v>-30.43478260869571</v>
       </c>
       <c r="L153" t="n">
         <v>24.45000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>29.40000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-14.81481481481486</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L154" t="n">
         <v>24.35000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>29.60000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.407407407407393</v>
+        <v>-44.44444444444436</v>
       </c>
       <c r="L155" t="n">
         <v>24.32000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>29.90000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-7.407407407407393</v>
+        <v>-52.38095238095233</v>
       </c>
       <c r="L156" t="n">
         <v>24.21</v>
@@ -8235,7 +8257,7 @@
         <v>30.20000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-13.72549019607844</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L157" t="n">
         <v>24.13</v>
@@ -8286,7 +8308,7 @@
         <v>30.50000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-13.72549019607844</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L158" t="n">
         <v>24.09</v>
@@ -8337,7 +8359,7 @@
         <v>30.50000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>-6.382978723404281</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L159" t="n">
         <v>24.05</v>
@@ -8388,7 +8410,7 @@
         <v>30.60000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>-10.63829787234044</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>23.98</v>
@@ -8439,7 +8461,7 @@
         <v>30.80000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>23.90000000000001</v>
@@ -8490,7 +8512,7 @@
         <v>30.90000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>-10.20408163265306</v>
+        <v>-33.33333333333307</v>
       </c>
       <c r="L162" t="n">
         <v>23.85000000000001</v>
@@ -8541,7 +8563,7 @@
         <v>31.00000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>-24.44444444444448</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L163" t="n">
         <v>23.78000000000001</v>
@@ -8592,7 +8614,7 @@
         <v>31.00000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>-33.33333333333328</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L164" t="n">
         <v>23.74000000000001</v>
@@ -8643,7 +8665,7 @@
         <v>31.00000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-24.32432432432427</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L165" t="n">
         <v>23.68000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>31.50000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>-24.32432432432427</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L166" t="n">
         <v>23.70000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>31.60000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-21.05263157894727</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L167" t="n">
         <v>23.70000000000001</v>
@@ -8796,7 +8818,7 @@
         <v>32.00000000000003</v>
       </c>
       <c r="K168" t="n">
-        <v>-14.28571428571424</v>
+        <v>-6.666666666666714</v>
       </c>
       <c r="L168" t="n">
         <v>23.69000000000001</v>
@@ -8847,7 +8869,7 @@
         <v>32.20000000000003</v>
       </c>
       <c r="K169" t="n">
-        <v>-8.108108108108098</v>
+        <v>12.49999999999986</v>
       </c>
       <c r="L169" t="n">
         <v>23.70000000000001</v>
@@ -8898,7 +8920,7 @@
         <v>32.20000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>-14.28571428571423</v>
+        <v>28.57142857142821</v>
       </c>
       <c r="L170" t="n">
         <v>23.72000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>32.30000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>-14.28571428571424</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L171" t="n">
         <v>23.75000000000001</v>
@@ -9000,7 +9022,7 @@
         <v>32.30000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>-9.090909090909081</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L172" t="n">
         <v>23.77000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>32.30000000000003</v>
       </c>
       <c r="K173" t="n">
-        <v>-12.4999999999999</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L173" t="n">
         <v>23.8</v>
@@ -9102,7 +9124,7 @@
         <v>32.50000000000003</v>
       </c>
       <c r="K174" t="n">
-        <v>-9.67741935483857</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L174" t="n">
         <v>23.81000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>32.70000000000003</v>
       </c>
       <c r="K175" t="n">
-        <v>-9.677419354838685</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L175" t="n">
         <v>23.84000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>32.90000000000003</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.666666666666604</v>
+        <v>-38.46153846153813</v>
       </c>
       <c r="L176" t="n">
         <v>23.80000000000001</v>
@@ -9255,7 +9277,7 @@
         <v>33.00000000000004</v>
       </c>
       <c r="K177" t="n">
-        <v>-21.42857142857134</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L177" t="n">
         <v>23.74000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>33.00000000000004</v>
       </c>
       <c r="K178" t="n">
-        <v>-11.99999999999994</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L178" t="n">
         <v>23.72000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>33.00000000000004</v>
       </c>
       <c r="K179" t="n">
-        <v>-11.99999999999994</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L179" t="n">
         <v>23.68000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>33.00000000000004</v>
       </c>
       <c r="K180" t="n">
-        <v>-8.333333333333247</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L180" t="n">
         <v>23.64000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>33.30000000000004</v>
       </c>
       <c r="K181" t="n">
-        <v>11.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>23.64</v>
@@ -9510,7 +9532,7 @@
         <v>33.40000000000004</v>
       </c>
       <c r="K182" t="n">
-        <v>3.999999999999881</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L182" t="n">
         <v>23.63</v>
@@ -9561,7 +9583,7 @@
         <v>33.40000000000004</v>
       </c>
       <c r="K183" t="n">
-        <v>8.333333333333234</v>
+        <v>11.11111111111072</v>
       </c>
       <c r="L183" t="n">
         <v>23.62</v>
@@ -9612,7 +9634,7 @@
         <v>33.40000000000004</v>
       </c>
       <c r="K184" t="n">
-        <v>8.333333333333234</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>23.63</v>
@@ -9663,7 +9685,7 @@
         <v>33.50000000000004</v>
       </c>
       <c r="K185" t="n">
-        <v>11.99999999999993</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L185" t="n">
         <v>23.63</v>
@@ -9714,7 +9736,7 @@
         <v>33.50000000000004</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.999999999999858</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L186" t="n">
         <v>23.65</v>
@@ -9765,7 +9787,7 @@
         <v>33.60000000000004</v>
       </c>
       <c r="K187" t="n">
-        <v>-19.99999999999989</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L187" t="n">
         <v>23.67</v>
@@ -9816,7 +9838,7 @@
         <v>33.60000000000004</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L188" t="n">
         <v>23.69</v>
@@ -9867,7 +9889,7 @@
         <v>33.70000000000005</v>
       </c>
       <c r="K189" t="n">
-        <v>-19.99999999999962</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>23.7</v>
@@ -9918,7 +9940,7 @@
         <v>33.70000000000005</v>
       </c>
       <c r="K190" t="n">
-        <v>-19.99999999999962</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L190" t="n">
         <v>23.71</v>
@@ -9969,7 +9991,7 @@
         <v>33.80000000000005</v>
       </c>
       <c r="K191" t="n">
-        <v>-19.99999999999976</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L191" t="n">
         <v>23.68</v>
@@ -10020,7 +10042,7 @@
         <v>34.00000000000004</v>
       </c>
       <c r="K192" t="n">
-        <v>-29.41176470588206</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L192" t="n">
         <v>23.64</v>
@@ -10071,7 +10093,7 @@
         <v>34.10000000000004</v>
       </c>
       <c r="K193" t="n">
-        <v>-22.2222222222222</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L193" t="n">
         <v>23.61</v>
@@ -10122,7 +10144,7 @@
         <v>34.20000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-17.64705882352942</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L194" t="n">
         <v>23.57</v>
@@ -10173,7 +10195,7 @@
         <v>34.30000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>-25.00000000000022</v>
+        <v>-50.00000000000134</v>
       </c>
       <c r="L195" t="n">
         <v>23.53</v>
@@ -10224,7 +10246,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K196" t="n">
-        <v>-20.00000000000024</v>
+        <v>-50.00000000000134</v>
       </c>
       <c r="L196" t="n">
         <v>23.48</v>
@@ -10275,7 +10297,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>-14.28571428571439</v>
+        <v>-50.00000000000134</v>
       </c>
       <c r="L197" t="n">
         <v>23.44</v>
@@ -10326,7 +10348,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K198" t="n">
-        <v>-14.28571428571439</v>
+        <v>-42.85714285714452</v>
       </c>
       <c r="L198" t="n">
         <v>23.40000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>34.40000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.28571428571439</v>
+        <v>-42.85714285714452</v>
       </c>
       <c r="L199" t="n">
         <v>23.37000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>34.50000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-6.666666666666857</v>
+        <v>-14.28571428571516</v>
       </c>
       <c r="L200" t="n">
         <v>23.35000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>34.80000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>-6.666666666666887</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L201" t="n">
         <v>23.37000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>35.10000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>-17.64705882352979</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>23.38000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>35.2</v>
       </c>
       <c r="K203" t="n">
-        <v>-22.22222222222262</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>23.37000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>35.3</v>
       </c>
       <c r="K204" t="n">
-        <v>-15.78947368421093</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>23.38000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-4.761904761904939</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L205" t="n">
         <v>23.41</v>
@@ -10734,7 +10756,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.761904761904939</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L206" t="n">
         <v>23.45000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>35.59999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L207" t="n">
         <v>23.49</v>
@@ -10836,7 +10858,7 @@
         <v>35.89999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-13.04347826086989</v>
+        <v>6.666666666666651</v>
       </c>
       <c r="L208" t="n">
         <v>23.5</v>
@@ -10887,7 +10909,7 @@
         <v>35.99999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-13.04347826086993</v>
+        <v>-6.666666666666651</v>
       </c>
       <c r="L209" t="n">
         <v>23.5</v>
@@ -10938,7 +10960,7 @@
         <v>36.29999999999998</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-6.666666666666651</v>
       </c>
       <c r="L210" t="n">
         <v>23.52</v>
@@ -10989,7 +11011,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>-3.70370370370384</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>23.49</v>
@@ -11091,7 +11113,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K213" t="n">
-        <v>7.142857142857396</v>
+        <v>12.50000000000033</v>
       </c>
       <c r="L213" t="n">
         <v>23.51</v>
@@ -11142,7 +11164,7 @@
         <v>36.99999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>14.28571428571454</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>23.54</v>
@@ -11193,7 +11215,7 @@
         <v>37.19999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>3.448275862069075</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L215" t="n">
         <v>23.52</v>
@@ -11244,7 +11266,7 @@
         <v>37.39999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-22.22222222222235</v>
       </c>
       <c r="L216" t="n">
         <v>23.48</v>
@@ -11295,7 +11317,7 @@
         <v>37.59999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>6.250000000000055</v>
+        <v>5.882352941176594</v>
       </c>
       <c r="L217" t="n">
         <v>23.46</v>
@@ -11346,7 +11368,7 @@
         <v>37.69999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>9.090909090909218</v>
+        <v>17.6470588235295</v>
       </c>
       <c r="L218" t="n">
         <v>23.48</v>
@@ -11397,7 +11419,7 @@
         <v>37.79999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>11.76470588235303</v>
+        <v>6.666666666666525</v>
       </c>
       <c r="L219" t="n">
         <v>23.52</v>
@@ -11448,7 +11470,7 @@
         <v>37.79999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>9.090909090909198</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L220" t="n">
         <v>23.53</v>
@@ -11499,7 +11521,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>16.66666666666683</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L221" t="n">
         <v>23.62</v>
@@ -11550,7 +11572,7 @@
         <v>38.39999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>27.27272727272754</v>
+        <v>46.6666666666664</v>
       </c>
       <c r="L222" t="n">
         <v>23.72</v>
@@ -11601,7 +11623,7 @@
         <v>38.49999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>27.27272727272737</v>
+        <v>33.33333333333302</v>
       </c>
       <c r="L223" t="n">
         <v>23.78</v>
@@ -11652,7 +11674,7 @@
         <v>38.59999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>21.21212121212141</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L224" t="n">
         <v>23.82</v>
@@ -11703,7 +11725,7 @@
         <v>38.69999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>9.677419354838772</v>
+        <v>53.84615384615361</v>
       </c>
       <c r="L225" t="n">
         <v>23.87</v>
@@ -11754,7 +11776,7 @@
         <v>38.79999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>12.50000000000011</v>
+        <v>50</v>
       </c>
       <c r="L226" t="n">
         <v>23.95</v>
@@ -11805,7 +11827,7 @@
         <v>38.89999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>15.15151515151523</v>
+        <v>50</v>
       </c>
       <c r="L227" t="n">
         <v>24.02</v>
@@ -11856,7 +11878,7 @@
         <v>39.19999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>33.33333333333355</v>
+        <v>57.14285714285754</v>
       </c>
       <c r="L228" t="n">
         <v>24.11</v>
@@ -11907,7 +11929,7 @@
         <v>39.29999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>33.33333333333337</v>
+        <v>46.66666666666684</v>
       </c>
       <c r="L229" t="n">
         <v>24.18</v>
@@ -11958,7 +11980,7 @@
         <v>39.39999999999998</v>
       </c>
       <c r="K230" t="n">
-        <v>29.03225806451614</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L230" t="n">
         <v>24.26</v>
@@ -12009,7 +12031,7 @@
         <v>39.39999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>37.93103448275878</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L231" t="n">
         <v>24.28</v>
@@ -12060,7 +12082,7 @@
         <v>39.49999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>44.8275862068966</v>
+        <v>40.0000000000005</v>
       </c>
       <c r="L232" t="n">
         <v>24.31</v>
@@ -12111,7 +12133,7 @@
         <v>39.59999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>33.33333333333325</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L233" t="n">
         <v>24.34</v>
@@ -12162,7 +12184,7 @@
         <v>39.69999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>25.9259259259258</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L234" t="n">
         <v>24.37</v>
@@ -12213,7 +12235,7 @@
         <v>39.89999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>40.74074074074064</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L235" t="n">
         <v>24.43</v>
@@ -12264,7 +12286,7 @@
         <v>40.19999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>35.71428571428557</v>
+        <v>7.692307692307734</v>
       </c>
       <c r="L236" t="n">
         <v>24.45</v>
@@ -12315,7 +12337,7 @@
         <v>40.29999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333325</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L237" t="n">
         <v>24.47000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>40.39999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>25.92592592592594</v>
+        <v>-9.090909090908886</v>
       </c>
       <c r="L238" t="n">
         <v>24.45000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>40.59999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>28.57142857142863</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>24.46</v>
@@ -12468,7 +12490,7 @@
         <v>40.79999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L240" t="n">
         <v>24.48000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>7.692307692307661</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L241" t="n">
         <v>24.48000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="K242" t="n">
-        <v>7.692307692307661</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>24.47000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>41.09999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>7.692307692307661</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>24.46000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>41.29999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>18.51851851851845</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>24.48000000000001</v>
@@ -12723,7 +12745,7 @@
         <v>41.39999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>18.51851851851845</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L245" t="n">
         <v>24.47000000000001</v>
@@ -12774,7 +12796,7 @@
         <v>41.39999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>15.38461538461528</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L246" t="n">
         <v>24.49</v>
@@ -12825,7 +12847,7 @@
         <v>41.59999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>18.5185185185184</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L247" t="n">
         <v>24.52</v>
@@ -12927,7 +12949,7 @@
         <v>42</v>
       </c>
       <c r="K249" t="n">
-        <v>11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>24.56</v>
@@ -12978,7 +13000,7 @@
         <v>42</v>
       </c>
       <c r="K250" t="n">
-        <v>7.692307692307598</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L250" t="n">
         <v>24.56</v>
@@ -13029,7 +13051,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>3.703703703703733</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L251" t="n">
         <v>24.57</v>
@@ -13080,7 +13102,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L252" t="n">
         <v>24.58000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>42.09999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>4.000000000000034</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>24.60000000000001</v>
@@ -13182,7 +13204,7 @@
         <v>42.5</v>
       </c>
       <c r="K254" t="n">
-        <v>-7.14285714285707</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L254" t="n">
         <v>24.56000000000001</v>
@@ -13233,7 +13255,7 @@
         <v>42.90000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>6.666666666666698</v>
       </c>
       <c r="L255" t="n">
         <v>24.57000000000001</v>
@@ -13284,7 +13306,7 @@
         <v>42.90000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>11.11111111111107</v>
+        <v>-7.692307692307461</v>
       </c>
       <c r="L256" t="n">
         <v>24.58000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>43.10000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L257" t="n">
         <v>24.55000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>43.10000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>3.703703703703582</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L258" t="n">
         <v>24.54000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>43.10000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>-4.000000000000012</v>
+        <v>-27.27272727272713</v>
       </c>
       <c r="L259" t="n">
         <v>24.51000000000001</v>
@@ -13488,7 +13510,7 @@
         <v>43.20000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>-8.33333333333321</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L260" t="n">
         <v>24.49000000000001</v>
@@ -13539,7 +13561,7 @@
         <v>43.40000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>8.333333333333234</v>
+        <v>7.692307692307461</v>
       </c>
       <c r="L261" t="n">
         <v>24.50000000000001</v>
@@ -13590,7 +13612,7 @@
         <v>43.8</v>
       </c>
       <c r="K262" t="n">
-        <v>-7.14285714285707</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L262" t="n">
         <v>24.47000000000001</v>
@@ -13641,7 +13663,7 @@
         <v>44.2</v>
       </c>
       <c r="K263" t="n">
-        <v>9.677419354838685</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L263" t="n">
         <v>24.48000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>44.2</v>
       </c>
       <c r="K264" t="n">
-        <v>3.448275862068876</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L264" t="n">
         <v>24.53000000000001</v>
@@ -13743,7 +13765,7 @@
         <v>44.3</v>
       </c>
       <c r="K265" t="n">
-        <v>10.34482758620688</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L265" t="n">
         <v>24.55000000000001</v>
@@ -13794,7 +13816,7 @@
         <v>44.5</v>
       </c>
       <c r="K266" t="n">
-        <v>16.12903225806447</v>
+        <v>42.85714285714322</v>
       </c>
       <c r="L266" t="n">
         <v>24.59000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>44.6</v>
       </c>
       <c r="K267" t="n">
-        <v>13.33333333333337</v>
+        <v>46.66666666666708</v>
       </c>
       <c r="L267" t="n">
         <v>24.66000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>44.90000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>9.677419354838706</v>
+        <v>22.22222222222238</v>
       </c>
       <c r="L268" t="n">
         <v>24.70000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>44.90000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>3.448275862069008</v>
+        <v>17.6470588235295</v>
       </c>
       <c r="L269" t="n">
         <v>24.74000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>45.10000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>9.677419354838706</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L270" t="n">
         <v>24.79000000000001</v>
@@ -14049,7 +14071,7 @@
         <v>45.20000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>16.12903225806443</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L271" t="n">
         <v>24.83000000000001</v>
@@ -14100,7 +14122,7 @@
         <v>45.30000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>12.49999999999989</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L272" t="n">
         <v>24.90000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>45.40000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>15.15151515151507</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L273" t="n">
         <v>24.94000000000002</v>
@@ -14202,7 +14224,7 @@
         <v>45.50000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>33.33333333333318</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L274" t="n">
         <v>24.99000000000002</v>
@@ -14253,7 +14275,7 @@
         <v>45.60000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>25.9259259259258</v>
+        <v>27.27272727272695</v>
       </c>
       <c r="L275" t="n">
         <v>25.04000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>45.70000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>28.57142857142835</v>
+        <v>27.27272727272663</v>
       </c>
       <c r="L276" t="n">
         <v>25.08000000000001</v>
@@ -14355,7 +14377,7 @@
         <v>46.00000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>24.13793103448281</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L277" t="n">
         <v>25.08000000000002</v>
@@ -14406,7 +14428,7 @@
         <v>46.30000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>31.24999999999997</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L278" t="n">
         <v>25.14000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>46.60000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>20.00000000000008</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L279" t="n">
         <v>25.17000000000002</v>
@@ -14508,7 +14530,7 @@
         <v>46.80000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>11.11111111111107</v>
+        <v>-12.50000000000017</v>
       </c>
       <c r="L280" t="n">
         <v>25.16000000000001</v>
@@ -14559,7 +14581,7 @@
         <v>46.80000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>5.88235294117644</v>
+        <v>-6.666666666666761</v>
       </c>
       <c r="L281" t="n">
         <v>25.14000000000001</v>
@@ -14610,7 +14632,7 @@
         <v>47.00000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>24.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>25.15000000000001</v>
@@ -14661,7 +14683,7 @@
         <v>47.20000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>6.666666666666611</v>
+        <v>-17.64705882352942</v>
       </c>
       <c r="L283" t="n">
         <v>25.13000000000001</v>
@@ -14712,7 +14734,7 @@
         <v>47.60000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>-5.882352941176427</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L284" t="n">
         <v>25.06000000000001</v>
@@ -14763,7 +14785,7 @@
         <v>47.60000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>-9.090909090909081</v>
+        <v>-47.36842105263154</v>
       </c>
       <c r="L285" t="n">
         <v>24.98000000000001</v>
@@ -14814,7 +14836,7 @@
         <v>48.00000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>-2.857142857142886</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L286" t="n">
         <v>24.93</v>
@@ -14865,7 +14887,7 @@
         <v>48.20000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.11111111111112</v>
+        <v>-36.84210526315775</v>
       </c>
       <c r="L287" t="n">
         <v>24.89000000000001</v>
@@ -14916,7 +14938,7 @@
         <v>48.30000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>0</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L288" t="n">
         <v>24.83000000000001</v>
@@ -14967,7 +14989,7 @@
         <v>48.40000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>-2.857142857142886</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L289" t="n">
         <v>24.79000000000001</v>
@@ -15018,7 +15040,7 @@
         <v>48.70000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L290" t="n">
         <v>24.80000000000001</v>
@@ -15069,7 +15091,7 @@
         <v>48.80000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-5.555555555555621</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L291" t="n">
         <v>24.80000000000001</v>
@@ -15120,7 +15142,7 @@
         <v>48.80000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>-2.857142857142892</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>24.78000000000001</v>
@@ -15171,7 +15193,7 @@
         <v>49.10000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>-13.5135135135135</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L293" t="n">
         <v>24.75000000000001</v>
@@ -15222,7 +15244,7 @@
         <v>49.10000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>-16.6666666666666</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L294" t="n">
         <v>24.76000000000001</v>
@@ -15273,7 +15295,7 @@
         <v>49.30000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>-24.32432432432437</v>
+        <v>-38.46153846153834</v>
       </c>
       <c r="L295" t="n">
         <v>24.75000000000001</v>
@@ -15324,7 +15346,7 @@
         <v>49.50000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-21.05263157894727</v>
+        <v>-7.692307692307502</v>
       </c>
       <c r="L296" t="n">
         <v>24.72000000000001</v>
@@ -15375,7 +15397,7 @@
         <v>49.60000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-11.11111111111114</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L297" t="n">
         <v>24.72000000000001</v>
@@ -15426,7 +15448,7 @@
         <v>49.80000000000003</v>
       </c>
       <c r="K298" t="n">
-        <v>-25.71428571428557</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L298" t="n">
         <v>24.69000000000001</v>
@@ -15477,7 +15499,7 @@
         <v>50.30000000000003</v>
       </c>
       <c r="K299" t="n">
-        <v>-29.72972972972963</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L299" t="n">
         <v>24.62000000000001</v>
@@ -15528,7 +15550,7 @@
         <v>50.80000000000003</v>
       </c>
       <c r="K300" t="n">
-        <v>-9.999999999999929</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L300" t="n">
         <v>24.57000000000001</v>
@@ -15579,7 +15601,7 @@
         <v>51.20000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>-18.18181818181807</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L301" t="n">
         <v>24.49000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>51.30000000000003</v>
       </c>
       <c r="K302" t="n">
-        <v>-25.58139534883718</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L302" t="n">
         <v>24.40000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>51.70000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>-11.11111111111109</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L303" t="n">
         <v>24.38000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>51.70000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-2.439024390243932</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>24.36000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>51.90000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>-6.976744186046521</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L305" t="n">
         <v>24.34000000000001</v>
@@ -15834,7 +15856,7 @@
         <v>52.00000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>-14.99999999999992</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L306" t="n">
         <v>24.31000000000001</v>
@@ -15885,7 +15907,7 @@
         <v>52.10000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>-7.6923076923077</v>
+        <v>-4.347826086956589</v>
       </c>
       <c r="L307" t="n">
         <v>24.28000000000001</v>
@@ -15936,7 +15958,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>-7.6923076923077</v>
+        <v>26.31578947368423</v>
       </c>
       <c r="L308" t="n">
         <v>24.28000000000001</v>
@@ -15987,7 +16009,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>-5.263157894736818</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>24.33000000000001</v>
@@ -16038,7 +16060,7 @@
         <v>52.20000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>-14.28571428571426</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L310" t="n">
         <v>24.33000000000001</v>
@@ -16089,7 +16111,7 @@
         <v>52.30000000000003</v>
       </c>
       <c r="K311" t="n">
-        <v>-8.571428571428473</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L311" t="n">
         <v>24.38000000000002</v>
@@ -16140,7 +16162,7 @@
         <v>52.40000000000002</v>
       </c>
       <c r="K312" t="n">
-        <v>-5.555555555555534</v>
+        <v>42.85714285714322</v>
       </c>
       <c r="L312" t="n">
         <v>24.45000000000002</v>
@@ -16191,7 +16213,7 @@
         <v>52.60000000000002</v>
       </c>
       <c r="K313" t="n">
-        <v>-2.857142857142892</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L313" t="n">
         <v>24.46000000000002</v>
@@ -16242,7 +16264,7 @@
         <v>52.60000000000002</v>
       </c>
       <c r="K314" t="n">
-        <v>-2.857142857142892</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L314" t="n">
         <v>24.47000000000001</v>
@@ -16293,7 +16315,7 @@
         <v>52.60000000000002</v>
       </c>
       <c r="K315" t="n">
-        <v>3.03030303030307</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L315" t="n">
         <v>24.50000000000002</v>
@@ -16344,7 +16366,7 @@
         <v>52.70000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>-6.250000000000083</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>24.51000000000001</v>
@@ -16395,7 +16417,7 @@
         <v>52.90000000000003</v>
       </c>
       <c r="K317" t="n">
-        <v>-3.030303030302962</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L317" t="n">
         <v>24.53000000000002</v>
@@ -16446,7 +16468,7 @@
         <v>52.90000000000003</v>
       </c>
       <c r="K318" t="n">
-        <v>3.225806451612947</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L318" t="n">
         <v>24.54000000000001</v>
@@ -16497,7 +16519,7 @@
         <v>53.10000000000003</v>
       </c>
       <c r="K319" t="n">
-        <v>14.28571428571421</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L319" t="n">
         <v>24.53000000000001</v>
@@ -16548,7 +16570,7 @@
         <v>53.20000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L320" t="n">
         <v>24.53000000000001</v>
@@ -16599,7 +16621,7 @@
         <v>53.30000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>14.28571428571409</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L321" t="n">
         <v>24.51000000000001</v>
@@ -16650,7 +16672,7 @@
         <v>53.30000000000003</v>
       </c>
       <c r="K322" t="n">
-        <v>19.99999999999986</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L322" t="n">
         <v>24.48000000000001</v>
@@ -16701,7 +16723,7 @@
         <v>53.40000000000003</v>
       </c>
       <c r="K323" t="n">
-        <v>-5.882352941176311</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L323" t="n">
         <v>24.46000000000002</v>
@@ -16752,7 +16774,7 @@
         <v>53.60000000000004</v>
       </c>
       <c r="K324" t="n">
-        <v>5.263157894736882</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>24.46000000000002</v>
@@ -16803,7 +16825,7 @@
         <v>53.80000000000004</v>
       </c>
       <c r="K325" t="n">
-        <v>5.263157894736862</v>
+        <v>-9.090909090908768</v>
       </c>
       <c r="L325" t="n">
         <v>24.44000000000002</v>
@@ -16854,7 +16876,7 @@
         <v>53.80000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L326" t="n">
         <v>24.43000000000001</v>
@@ -16905,7 +16927,7 @@
         <v>53.80000000000004</v>
       </c>
       <c r="K327" t="n">
-        <v>-5.882352941176286</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L327" t="n">
         <v>24.40000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>53.90000000000003</v>
       </c>
       <c r="K328" t="n">
-        <v>-5.88235294117652</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>24.38000000000002</v>
@@ -17058,7 +17080,7 @@
         <v>54.10000000000004</v>
       </c>
       <c r="K330" t="n">
-        <v>-5.263157894736882</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>24.38000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>54.10000000000004</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>24.38000000000002</v>
@@ -17160,7 +17182,7 @@
         <v>54.10000000000004</v>
       </c>
       <c r="K332" t="n">
-        <v>-17.64705882352928</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L332" t="n">
         <v>24.38000000000002</v>
@@ -17211,7 +17233,7 @@
         <v>54.30000000000004</v>
       </c>
       <c r="K333" t="n">
-        <v>-17.64705882352928</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L333" t="n">
         <v>24.37000000000002</v>
@@ -17262,7 +17284,7 @@
         <v>54.40000000000004</v>
       </c>
       <c r="K334" t="n">
-        <v>-11.11111111111096</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>24.35000000000002</v>
@@ -17313,7 +17335,7 @@
         <v>54.50000000000004</v>
       </c>
       <c r="K335" t="n">
-        <v>-15.7894736842104</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L335" t="n">
         <v>24.34000000000001</v>
@@ -17364,7 +17386,7 @@
         <v>54.60000000000004</v>
       </c>
       <c r="K336" t="n">
-        <v>-5.263157894736675</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>24.34000000000001</v>
@@ -17415,7 +17437,7 @@
         <v>54.70000000000005</v>
       </c>
       <c r="K337" t="n">
-        <v>-22.22222222222211</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L337" t="n">
         <v>24.33000000000001</v>
@@ -17466,7 +17488,7 @@
         <v>54.70000000000005</v>
       </c>
       <c r="K338" t="n">
-        <v>-22.22222222222211</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L338" t="n">
         <v>24.31000000000001</v>
@@ -17517,7 +17539,7 @@
         <v>54.80000000000005</v>
       </c>
       <c r="K339" t="n">
-        <v>-5.882352941176286</v>
+        <v>-14.28571428571378</v>
       </c>
       <c r="L339" t="n">
         <v>24.29000000000001</v>
@@ -17568,7 +17590,7 @@
         <v>54.80000000000005</v>
       </c>
       <c r="K340" t="n">
-        <v>-12.49999999999983</v>
+        <v>-14.28571428571378</v>
       </c>
       <c r="L340" t="n">
         <v>24.28000000000001</v>
@@ -17619,7 +17641,7 @@
         <v>55.10000000000005</v>
       </c>
       <c r="K341" t="n">
-        <v>-22.22222222222192</v>
+        <v>-39.99999999999929</v>
       </c>
       <c r="L341" t="n">
         <v>24.24000000000001</v>
@@ -17670,7 +17692,7 @@
         <v>55.10000000000005</v>
       </c>
       <c r="K342" t="n">
-        <v>-22.22222222222192</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L342" t="n">
         <v>24.20000000000001</v>
@@ -17721,7 +17743,7 @@
         <v>55.10000000000005</v>
       </c>
       <c r="K343" t="n">
-        <v>-17.64705882352928</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L343" t="n">
         <v>24.18000000000001</v>
@@ -17772,7 +17794,7 @@
         <v>55.10000000000005</v>
       </c>
       <c r="K344" t="n">
-        <v>-33.33333333333302</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L344" t="n">
         <v>24.15000000000001</v>
@@ -17823,7 +17845,7 @@
         <v>55.60000000000005</v>
       </c>
       <c r="K345" t="n">
-        <v>-44.4444444444442</v>
+        <v>-79.9999999999995</v>
       </c>
       <c r="L345" t="n">
         <v>24.08000000000001</v>
@@ -17874,7 +17896,7 @@
         <v>56.10000000000005</v>
       </c>
       <c r="K346" t="n">
-        <v>-13.04347826086953</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L346" t="n">
         <v>24.05000000000001</v>
@@ -17925,7 +17947,7 @@
         <v>56.30000000000005</v>
       </c>
       <c r="K347" t="n">
-        <v>-19.99999999999989</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L347" t="n">
         <v>24.01000000000001</v>
@@ -17976,7 +17998,7 @@
         <v>56.50000000000006</v>
       </c>
       <c r="K348" t="n">
-        <v>-30.76923076923039</v>
+        <v>-41.17647058823501</v>
       </c>
       <c r="L348" t="n">
         <v>23.95000000000002</v>
@@ -18027,7 +18049,7 @@
         <v>56.60000000000006</v>
       </c>
       <c r="K349" t="n">
-        <v>-38.46153846153813</v>
+        <v>-44.4444444444442</v>
       </c>
       <c r="L349" t="n">
         <v>23.87000000000002</v>
@@ -18078,7 +18100,7 @@
         <v>56.60000000000006</v>
       </c>
       <c r="K350" t="n">
-        <v>-35.99999999999964</v>
+        <v>-33.33333333333318</v>
       </c>
       <c r="L350" t="n">
         <v>23.79000000000001</v>
@@ -18129,7 +18151,7 @@
         <v>56.80000000000005</v>
       </c>
       <c r="K351" t="n">
-        <v>-40.74074074074041</v>
+        <v>-41.17647058823518</v>
       </c>
       <c r="L351" t="n">
         <v>23.72000000000002</v>
@@ -18180,7 +18202,7 @@
         <v>56.80000000000005</v>
       </c>
       <c r="K352" t="n">
-        <v>-40.74074074074041</v>
+        <v>-41.17647058823518</v>
       </c>
       <c r="L352" t="n">
         <v>23.65000000000002</v>
@@ -18231,7 +18253,7 @@
         <v>56.90000000000005</v>
       </c>
       <c r="K353" t="n">
-        <v>-30.76923076923069</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L353" t="n">
         <v>23.59000000000001</v>
@@ -18282,7 +18304,7 @@
         <v>56.90000000000005</v>
       </c>
       <c r="K354" t="n">
-        <v>-35.99999999999998</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L354" t="n">
         <v>23.53000000000001</v>
@@ -18333,7 +18355,7 @@
         <v>57.10000000000005</v>
       </c>
       <c r="K355" t="n">
-        <v>-38.46153846153834</v>
+        <v>-80.00000000000007</v>
       </c>
       <c r="L355" t="n">
         <v>23.50000000000001</v>
@@ -18384,7 +18406,7 @@
         <v>57.20000000000005</v>
       </c>
       <c r="K356" t="n">
-        <v>-46.1538461538461</v>
+        <v>-77.77777777777844</v>
       </c>
       <c r="L356" t="n">
         <v>23.41000000000001</v>
@@ -18435,7 +18457,7 @@
         <v>57.30000000000005</v>
       </c>
       <c r="K357" t="n">
-        <v>-46.1538461538461</v>
+        <v>-75.00000000000111</v>
       </c>
       <c r="L357" t="n">
         <v>23.33000000000001</v>
@@ -18486,7 +18508,7 @@
         <v>57.60000000000005</v>
       </c>
       <c r="K358" t="n">
-        <v>-31.03448275862058</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L358" t="n">
         <v>23.30000000000001</v>
@@ -18537,7 +18559,7 @@
         <v>57.80000000000005</v>
       </c>
       <c r="K359" t="n">
-        <v>-39.99999999999988</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>23.26000000000001</v>
@@ -18588,7 +18610,7 @@
         <v>57.90000000000005</v>
       </c>
       <c r="K360" t="n">
-        <v>-35.48387096774196</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L360" t="n">
         <v>23.23000000000001</v>
@@ -18639,7 +18661,7 @@
         <v>57.90000000000005</v>
       </c>
       <c r="K361" t="n">
-        <v>-28.57142857142863</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L361" t="n">
         <v>23.22000000000001</v>
@@ -18690,7 +18712,7 @@
         <v>58.00000000000005</v>
       </c>
       <c r="K362" t="n">
-        <v>-24.13793103448275</v>
+        <v>-9.090909090908886</v>
       </c>
       <c r="L362" t="n">
         <v>23.22000000000001</v>
@@ -18741,7 +18763,7 @@
         <v>58.40000000000005</v>
       </c>
       <c r="K363" t="n">
-        <v>-9.09090909090912</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L363" t="n">
         <v>23.25000000000001</v>
@@ -18792,7 +18814,7 @@
         <v>58.40000000000005</v>
       </c>
       <c r="K364" t="n">
-        <v>-9.09090909090912</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L364" t="n">
         <v>23.28000000000001</v>
@@ -18843,7 +18865,7 @@
         <v>59.00000000000005</v>
       </c>
       <c r="K365" t="n">
-        <v>23.52941176470591</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L365" t="n">
         <v>23.39000000000001</v>
@@ -18894,7 +18916,7 @@
         <v>59.80000000000005</v>
       </c>
       <c r="K366" t="n">
-        <v>-13.5135135135135</v>
+        <v>19.99999999999994</v>
       </c>
       <c r="L366" t="n">
         <v>23.43000000000001</v>
@@ -18945,7 +18967,7 @@
         <v>60.40000000000006</v>
       </c>
       <c r="K367" t="n">
-        <v>7.317073170731722</v>
+        <v>28.57142857142855</v>
       </c>
       <c r="L367" t="n">
         <v>23.54000000000001</v>
@@ -18996,7 +19018,7 @@
         <v>60.40000000000006</v>
       </c>
       <c r="K368" t="n">
-        <v>12.82051282051282</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L368" t="n">
         <v>23.62000000000001</v>
@@ -19047,7 +19069,7 @@
         <v>60.50000000000006</v>
       </c>
       <c r="K369" t="n">
-        <v>17.94871794871794</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L369" t="n">
         <v>23.73000000000001</v>
@@ -19098,7 +19120,7 @@
         <v>60.50000000000006</v>
       </c>
       <c r="K370" t="n">
-        <v>17.94871794871794</v>
+        <v>38.46153846153834</v>
       </c>
       <c r="L370" t="n">
         <v>23.83000000000001</v>
@@ -19149,7 +19171,7 @@
         <v>60.50000000000006</v>
       </c>
       <c r="K371" t="n">
-        <v>24.32432432432427</v>
+        <v>35.99999999999984</v>
       </c>
       <c r="L371" t="n">
         <v>23.93000000000001</v>
@@ -19200,7 +19222,7 @@
         <v>60.60000000000006</v>
       </c>
       <c r="K372" t="n">
-        <v>26.31578947368418</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L372" t="n">
         <v>24.03000000000001</v>
@@ -19251,7 +19273,7 @@
         <v>60.60000000000006</v>
       </c>
       <c r="K373" t="n">
-        <v>24.32432432432432</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L373" t="n">
         <v>24.09000000000001</v>
@@ -19302,7 +19324,7 @@
         <v>60.60000000000006</v>
       </c>
       <c r="K374" t="n">
-        <v>24.32432432432432</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>24.15000000000002</v>
@@ -19353,7 +19375,7 @@
         <v>60.60000000000006</v>
       </c>
       <c r="K375" t="n">
-        <v>31.42857142857141</v>
+        <v>99.99999999999956</v>
       </c>
       <c r="L375" t="n">
         <v>24.15000000000002</v>
@@ -19404,7 +19426,7 @@
         <v>60.60000000000006</v>
       </c>
       <c r="K376" t="n">
-        <v>35.29411764705867</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L376" t="n">
         <v>24.23000000000002</v>
@@ -19455,7 +19477,7 @@
         <v>60.70000000000006</v>
       </c>
       <c r="K377" t="n">
-        <v>41.1764705882351</v>
+        <v>99.99999999999764</v>
       </c>
       <c r="L377" t="n">
         <v>24.26000000000002</v>
@@ -19506,7 +19528,7 @@
         <v>61.30000000000005</v>
       </c>
       <c r="K378" t="n">
-        <v>13.5135135135135</v>
+        <v>-50</v>
       </c>
       <c r="L378" t="n">
         <v>24.23000000000001</v>
@@ -19557,7 +19579,7 @@
         <v>61.40000000000005</v>
       </c>
       <c r="K379" t="n">
-        <v>22.22222222222218</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L379" t="n">
         <v>24.20000000000002</v>
@@ -19608,7 +19630,7 @@
         <v>61.60000000000005</v>
       </c>
       <c r="K380" t="n">
-        <v>13.5135135135135</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L380" t="n">
         <v>24.15000000000002</v>
@@ -19659,7 +19681,7 @@
         <v>61.80000000000005</v>
       </c>
       <c r="K381" t="n">
-        <v>7.6923076923077</v>
+        <v>-66.66666666666697</v>
       </c>
       <c r="L381" t="n">
         <v>24.08000000000002</v>
@@ -19710,7 +19732,7 @@
         <v>61.90000000000006</v>
       </c>
       <c r="K382" t="n">
-        <v>7.6923076923077</v>
+        <v>-53.84615384615391</v>
       </c>
       <c r="L382" t="n">
         <v>24.01000000000002</v>
@@ -19761,7 +19783,7 @@
         <v>62.00000000000006</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L383" t="n">
         <v>23.95000000000002</v>
@@ -19812,7 +19834,7 @@
         <v>62.20000000000006</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.263157894736808</v>
+        <v>-50</v>
       </c>
       <c r="L384" t="n">
         <v>23.87000000000002</v>
@@ -19863,7 +19885,7 @@
         <v>62.20000000000006</v>
       </c>
       <c r="K385" t="n">
-        <v>-24.99999999999994</v>
+        <v>-50</v>
       </c>
       <c r="L385" t="n">
         <v>23.79000000000001</v>
@@ -19914,7 +19936,7 @@
         <v>62.30000000000006</v>
       </c>
       <c r="K386" t="n">
-        <v>-4.000000000000045</v>
+        <v>-62.49999999999994</v>
       </c>
       <c r="L386" t="n">
         <v>23.70000000000001</v>
@@ -19965,7 +19987,7 @@
         <v>62.70000000000006</v>
       </c>
       <c r="K387" t="n">
-        <v>-13.04347826086957</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>23.64000000000001</v>
@@ -20016,7 +20038,7 @@
         <v>63.00000000000006</v>
       </c>
       <c r="K388" t="n">
-        <v>-23.07692307692312</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L388" t="n">
         <v>23.61000000000001</v>
@@ -20067,7 +20089,7 @@
         <v>63.10000000000006</v>
       </c>
       <c r="K389" t="n">
-        <v>-30.76923076923078</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="L389" t="n">
         <v>23.56000000000001</v>
@@ -20118,7 +20140,7 @@
         <v>63.20000000000006</v>
       </c>
       <c r="K390" t="n">
-        <v>-25.92592592592587</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>23.54</v>
@@ -20169,7 +20191,7 @@
         <v>63.70000000000006</v>
       </c>
       <c r="K391" t="n">
-        <v>-6.249999999999972</v>
+        <v>22.22222222222209</v>
       </c>
       <c r="L391" t="n">
         <v>23.59</v>
@@ -20220,7 +20242,7 @@
         <v>63.90000000000006</v>
       </c>
       <c r="K392" t="n">
-        <v>-15.15151515151513</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L392" t="n">
         <v>23.61000000000001</v>
@@ -20271,7 +20293,7 @@
         <v>63.90000000000006</v>
       </c>
       <c r="K393" t="n">
-        <v>-15.15151515151513</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L393" t="n">
         <v>23.62</v>
@@ -20322,7 +20344,7 @@
         <v>64.10000000000007</v>
       </c>
       <c r="K394" t="n">
-        <v>-19.99999999999994</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L394" t="n">
         <v>23.63000000000001</v>
@@ -20373,7 +20395,7 @@
         <v>64.30000000000007</v>
       </c>
       <c r="K395" t="n">
-        <v>-24.32432432432432</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>23.62</v>
@@ -20424,7 +20446,7 @@
         <v>64.70000000000007</v>
       </c>
       <c r="K396" t="n">
-        <v>-12.19512195121947</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>23.66</v>
@@ -20475,7 +20497,7 @@
         <v>64.90000000000008</v>
       </c>
       <c r="K397" t="n">
-        <v>-19.0476190476189</v>
+        <v>5.263157894736862</v>
       </c>
       <c r="L397" t="n">
         <v>23.64</v>
@@ -20526,7 +20548,7 @@
         <v>64.90000000000008</v>
       </c>
       <c r="K398" t="n">
-        <v>-5.5555555555555</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L398" t="n">
         <v>23.65000000000001</v>
@@ -20577,7 +20599,7 @@
         <v>64.90000000000008</v>
       </c>
       <c r="K399" t="n">
-        <v>-8.57142857142842</v>
+        <v>5.882352941176496</v>
       </c>
       <c r="L399" t="n">
         <v>23.67000000000001</v>
@@ -20628,7 +20650,7 @@
         <v>64.90000000000008</v>
       </c>
       <c r="K400" t="n">
-        <v>-3.030303030302942</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L400" t="n">
         <v>23.68000000000001</v>
@@ -20679,7 +20701,7 @@
         <v>65.10000000000008</v>
       </c>
       <c r="K401" t="n">
-        <v>-3.03030303030305</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L401" t="n">
         <v>23.62</v>
@@ -20730,7 +20752,7 @@
         <v>65.20000000000007</v>
       </c>
       <c r="K402" t="n">
-        <v>-3.030303030303056</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L402" t="n">
         <v>23.59</v>
@@ -20781,7 +20803,7 @@
         <v>65.20000000000007</v>
       </c>
       <c r="K403" t="n">
-        <v>-6.249999999999945</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L403" t="n">
         <v>23.56</v>
@@ -20832,7 +20854,7 @@
         <v>65.30000000000007</v>
       </c>
       <c r="K404" t="n">
-        <v>3.22580645161294</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L404" t="n">
         <v>23.56000000000001</v>
@@ -20883,7 +20905,7 @@
         <v>65.30000000000007</v>
       </c>
       <c r="K405" t="n">
-        <v>3.22580645161294</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L405" t="n">
         <v>23.58000000000001</v>
@@ -20934,7 +20956,7 @@
         <v>65.40000000000006</v>
       </c>
       <c r="K406" t="n">
-        <v>3.225806451612947</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L406" t="n">
         <v>23.55</v>
@@ -20985,7 +21007,7 @@
         <v>65.60000000000007</v>
       </c>
       <c r="K407" t="n">
-        <v>-3.448275862069008</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L407" t="n">
         <v>23.56000000000001</v>
@@ -21036,7 +21058,7 @@
         <v>65.80000000000007</v>
       </c>
       <c r="K408" t="n">
-        <v>0</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L408" t="n">
         <v>23.55</v>
@@ -21087,7 +21109,7 @@
         <v>66.00000000000007</v>
       </c>
       <c r="K409" t="n">
-        <v>10.34482758620688</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L409" t="n">
         <v>23.56000000000001</v>
@@ -21138,7 +21160,7 @@
         <v>66.10000000000007</v>
       </c>
       <c r="K410" t="n">
-        <v>3.448275862069008</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L410" t="n">
         <v>23.56000000000001</v>
@@ -21189,7 +21211,7 @@
         <v>66.10000000000007</v>
       </c>
       <c r="K411" t="n">
-        <v>-16.66666666666657</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L411" t="n">
         <v>23.58000000000001</v>
@@ -21240,7 +21262,7 @@
         <v>66.20000000000007</v>
       </c>
       <c r="K412" t="n">
-        <v>-13.04347826086953</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>23.58000000000001</v>
@@ -21291,7 +21313,7 @@
         <v>66.20000000000007</v>
       </c>
       <c r="K413" t="n">
-        <v>-13.04347826086953</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L413" t="n">
         <v>23.58000000000001</v>
@@ -21342,7 +21364,7 @@
         <v>66.30000000000007</v>
       </c>
       <c r="K414" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L414" t="n">
         <v>23.56000000000001</v>
@@ -21393,7 +21415,7 @@
         <v>66.30000000000007</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L415" t="n">
         <v>23.54000000000001</v>
@@ -21444,7 +21466,7 @@
         <v>66.40000000000006</v>
       </c>
       <c r="K416" t="n">
-        <v>-29.41176470588255</v>
+        <v>-50</v>
       </c>
       <c r="L416" t="n">
         <v>23.52</v>
@@ -21495,7 +21517,7 @@
         <v>66.40000000000006</v>
       </c>
       <c r="K417" t="n">
-        <v>-20.00000000000024</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L417" t="n">
         <v>23.48000000000001</v>
@@ -21546,7 +21568,7 @@
         <v>66.40000000000006</v>
       </c>
       <c r="K418" t="n">
-        <v>-20.00000000000024</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L418" t="n">
         <v>23.46000000000001</v>
@@ -21597,7 +21619,7 @@
         <v>66.40000000000006</v>
       </c>
       <c r="K419" t="n">
-        <v>-20.00000000000024</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L419" t="n">
         <v>23.42000000000001</v>
@@ -21648,7 +21670,7 @@
         <v>66.40000000000006</v>
       </c>
       <c r="K420" t="n">
-        <v>-20.00000000000024</v>
+        <v>-100.0000000000012</v>
       </c>
       <c r="L420" t="n">
         <v>23.39000000000001</v>
@@ -21699,7 +21721,7 @@
         <v>66.40000000000006</v>
       </c>
       <c r="K421" t="n">
-        <v>-7.692307692307629</v>
+        <v>-100.0000000000053</v>
       </c>
       <c r="L421" t="n">
         <v>23.36000000000001</v>
@@ -21750,7 +21772,7 @@
         <v>66.50000000000006</v>
       </c>
       <c r="K422" t="n">
-        <v>-23.07692307692343</v>
+        <v>-100.0000000000059</v>
       </c>
       <c r="L422" t="n">
         <v>23.33000000000001</v>
@@ -21801,7 +21823,7 @@
         <v>66.50000000000006</v>
       </c>
       <c r="K423" t="n">
-        <v>-23.07692307692343</v>
+        <v>-100.0000000000053</v>
       </c>
       <c r="L423" t="n">
         <v>23.30000000000001</v>
@@ -21852,7 +21874,7 @@
         <v>66.60000000000005</v>
       </c>
       <c r="K424" t="n">
-        <v>-23.07692307692343</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L424" t="n">
         <v>23.29000000000001</v>
@@ -21903,7 +21925,7 @@
         <v>66.60000000000005</v>
       </c>
       <c r="K425" t="n">
-        <v>-23.07692307692343</v>
+        <v>0</v>
       </c>
       <c r="L425" t="n">
         <v>23.28000000000001</v>
@@ -21954,7 +21976,7 @@
         <v>66.70000000000005</v>
       </c>
       <c r="K426" t="n">
-        <v>-23.07692307692343</v>
+        <v>-33.3333333333357</v>
       </c>
       <c r="L426" t="n">
         <v>23.27000000000001</v>
@@ -22005,7 +22027,7 @@
         <v>66.80000000000004</v>
       </c>
       <c r="K427" t="n">
-        <v>-50.00000000000089</v>
+        <v>-50.00000000000266</v>
       </c>
       <c r="L427" t="n">
         <v>23.25000000000001</v>
@@ -22056,7 +22078,7 @@
         <v>66.80000000000004</v>
       </c>
       <c r="K428" t="n">
-        <v>-40.00000000000099</v>
+        <v>-50.00000000000266</v>
       </c>
       <c r="L428" t="n">
         <v>23.23000000000001</v>
@@ -22107,7 +22129,7 @@
         <v>66.80000000000004</v>
       </c>
       <c r="K429" t="n">
-        <v>-75.00000000000267</v>
+        <v>-50.00000000000266</v>
       </c>
       <c r="L429" t="n">
         <v>23.21</v>
@@ -22158,7 +22180,7 @@
         <v>67.20000000000005</v>
       </c>
       <c r="K430" t="n">
-        <v>-9.090909090909385</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L430" t="n">
         <v>23.23</v>
@@ -22209,7 +22231,7 @@
         <v>67.20000000000005</v>
       </c>
       <c r="K431" t="n">
-        <v>-9.090909090909385</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L431" t="n">
         <v>23.25</v>
@@ -22260,7 +22282,7 @@
         <v>67.30000000000004</v>
       </c>
       <c r="K432" t="n">
-        <v>9.090909090909502</v>
+        <v>50.00000000000134</v>
       </c>
       <c r="L432" t="n">
         <v>23.29</v>
@@ -22311,7 +22333,7 @@
         <v>67.30000000000004</v>
       </c>
       <c r="K433" t="n">
-        <v>9.090909090909502</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L433" t="n">
         <v>23.33000000000001</v>
@@ -22362,7 +22384,7 @@
         <v>67.30000000000004</v>
       </c>
       <c r="K434" t="n">
-        <v>20.00000000000085</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L434" t="n">
         <v>23.36000000000001</v>
@@ -22413,7 +22435,7 @@
         <v>67.40000000000003</v>
       </c>
       <c r="K435" t="n">
-        <v>9.090909090909502</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L435" t="n">
         <v>23.38000000000001</v>
@@ -22464,7 +22486,7 @@
         <v>67.60000000000004</v>
       </c>
       <c r="K436" t="n">
-        <v>33.33333333333393</v>
+        <v>75</v>
       </c>
       <c r="L436" t="n">
         <v>23.43000000000001</v>
@@ -22515,7 +22537,7 @@
         <v>67.80000000000004</v>
       </c>
       <c r="K437" t="n">
-        <v>14.28571428571447</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L437" t="n">
         <v>23.47000000000001</v>
@@ -22566,7 +22588,7 @@
         <v>67.90000000000003</v>
       </c>
       <c r="K438" t="n">
-        <v>20.00000000000043</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L438" t="n">
         <v>23.52000000000001</v>
@@ -22668,7 +22690,7 @@
         <v>68.10000000000002</v>
       </c>
       <c r="K440" t="n">
-        <v>29.41176470588304</v>
+        <v>33.33333333333425</v>
       </c>
       <c r="L440" t="n">
         <v>23.61000000000001</v>
@@ -22719,7 +22741,7 @@
         <v>68.40000000000002</v>
       </c>
       <c r="K441" t="n">
-        <v>10.00000000000018</v>
+        <v>-9.090909090909385</v>
       </c>
       <c r="L441" t="n">
         <v>23.61000000000001</v>
@@ -22770,7 +22792,7 @@
         <v>68.60000000000002</v>
       </c>
       <c r="K442" t="n">
-        <v>4.761904761904907</v>
+        <v>-23.07692307692343</v>
       </c>
       <c r="L442" t="n">
         <v>23.58000000000001</v>
@@ -22821,7 +22843,7 @@
         <v>68.90000000000002</v>
       </c>
       <c r="K443" t="n">
-        <v>16.66666666666701</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>23.58000000000001</v>
@@ -22872,7 +22894,7 @@
         <v>69.00000000000003</v>
       </c>
       <c r="K444" t="n">
-        <v>8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>23.57000000000001</v>
@@ -22923,7 +22945,7 @@
         <v>69.00000000000003</v>
       </c>
       <c r="K445" t="n">
-        <v>8.333333333333384</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L445" t="n">
         <v>23.57</v>
@@ -22974,7 +22996,7 @@
         <v>69.00000000000003</v>
       </c>
       <c r="K446" t="n">
-        <v>13.04347826086969</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>23.55</v>
@@ -23025,7 +23047,7 @@
         <v>69.00000000000003</v>
       </c>
       <c r="K447" t="n">
-        <v>18.18181818181821</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L447" t="n">
         <v>23.55</v>
@@ -23076,7 +23098,7 @@
         <v>69.20000000000003</v>
       </c>
       <c r="K448" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>23.56000000000001</v>
@@ -23127,7 +23149,7 @@
         <v>69.70000000000003</v>
       </c>
       <c r="K449" t="n">
-        <v>3.448275862068902</v>
+        <v>-37.49999999999989</v>
       </c>
       <c r="L449" t="n">
         <v>23.51000000000001</v>
@@ -23178,7 +23200,7 @@
         <v>69.70000000000003</v>
       </c>
       <c r="K450" t="n">
-        <v>-12.0000000000001</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L450" t="n">
         <v>23.45000000000001</v>
@@ -23229,7 +23251,7 @@
         <v>69.70000000000003</v>
       </c>
       <c r="K451" t="n">
-        <v>-12.0000000000001</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L451" t="n">
         <v>23.42000000000001</v>
@@ -23280,7 +23302,7 @@
         <v>69.80000000000004</v>
       </c>
       <c r="K452" t="n">
-        <v>-12.00000000000003</v>
+        <v>-33.33333333333267</v>
       </c>
       <c r="L452" t="n">
         <v>23.42000000000001</v>
@@ -23331,7 +23353,7 @@
         <v>69.90000000000003</v>
       </c>
       <c r="K453" t="n">
-        <v>-7.692307692307819</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L453" t="n">
         <v>23.4</v>
@@ -23382,7 +23404,7 @@
         <v>69.90000000000003</v>
       </c>
       <c r="K454" t="n">
-        <v>-7.692307692307819</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L454" t="n">
         <v>23.39</v>
@@ -23433,7 +23455,7 @@
         <v>70.10000000000004</v>
       </c>
       <c r="K455" t="n">
-        <v>3.703703703703753</v>
+        <v>9.09090909090915</v>
       </c>
       <c r="L455" t="n">
         <v>23.40000000000001</v>
@@ -23484,7 +23506,7 @@
         <v>70.40000000000003</v>
       </c>
       <c r="K456" t="n">
-        <v>-14.28571428571425</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L456" t="n">
         <v>23.38000000000001</v>
@@ -23535,7 +23557,7 @@
         <v>70.40000000000003</v>
       </c>
       <c r="K457" t="n">
-        <v>-7.692307692307682</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L457" t="n">
         <v>23.36000000000001</v>
@@ -23586,7 +23608,7 @@
         <v>70.60000000000004</v>
       </c>
       <c r="K458" t="n">
-        <v>-18.5185185185185</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L458" t="n">
         <v>23.30000000000001</v>
@@ -23637,7 +23659,7 @@
         <v>71.00000000000003</v>
       </c>
       <c r="K459" t="n">
-        <v>-6.666666666666643</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L459" t="n">
         <v>23.33000000000001</v>
@@ -23688,7 +23710,7 @@
         <v>71.00000000000003</v>
       </c>
       <c r="K460" t="n">
-        <v>-10.3448275862069</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L460" t="n">
         <v>23.36000000000001</v>
@@ -23739,7 +23761,7 @@
         <v>71.10000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>3.703703703703753</v>
+        <v>23.07692307692343</v>
       </c>
       <c r="L461" t="n">
         <v>23.40000000000002</v>
@@ -23790,7 +23812,7 @@
         <v>71.10000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>12.00000000000003</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L462" t="n">
         <v>23.43000000000002</v>
@@ -23841,7 +23863,7 @@
         <v>71.10000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>16.66666666666706</v>
       </c>
       <c r="L463" t="n">
         <v>23.45000000000002</v>
@@ -23892,7 +23914,7 @@
         <v>71.10000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>4.761904761904842</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>23.47000000000002</v>
@@ -23943,7 +23965,7 @@
         <v>71.10000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>4.761904761904842</v>
+        <v>42.85714285714366</v>
       </c>
       <c r="L465" t="n">
         <v>23.47000000000002</v>
@@ -23994,7 +24016,7 @@
         <v>71.30000000000003</v>
       </c>
       <c r="K466" t="n">
-        <v>13.04347826086961</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L466" t="n">
         <v>23.52000000000002</v>
@@ -24045,7 +24067,7 @@
         <v>71.30000000000003</v>
       </c>
       <c r="K467" t="n">
-        <v>13.04347826086961</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L467" t="n">
         <v>23.57000000000001</v>
@@ -24096,7 +24118,7 @@
         <v>71.50000000000003</v>
       </c>
       <c r="K468" t="n">
-        <v>13.04347826086961</v>
+        <v>100</v>
       </c>
       <c r="L468" t="n">
         <v>23.66000000000002</v>
@@ -24147,7 +24169,7 @@
         <v>71.60000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>36.84210526315802</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L469" t="n">
         <v>23.70000000000002</v>
@@ -24198,7 +24220,7 @@
         <v>71.90000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>45.45454545454569</v>
+        <v>75</v>
       </c>
       <c r="L470" t="n">
         <v>23.77000000000002</v>
@@ -24249,7 +24271,7 @@
         <v>72.00000000000001</v>
       </c>
       <c r="K471" t="n">
-        <v>39.13043478260908</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L471" t="n">
         <v>23.82000000000002</v>
@@ -24300,7 +24322,7 @@
         <v>72.00000000000001</v>
       </c>
       <c r="K472" t="n">
-        <v>36.36363636363682</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L472" t="n">
         <v>23.87000000000002</v>
@@ -24351,7 +24373,7 @@
         <v>72.10000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>27.27272727272748</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L473" t="n">
         <v>23.91000000000002</v>
@@ -24402,7 +24424,7 @@
         <v>72.30000000000003</v>
       </c>
       <c r="K474" t="n">
-        <v>33.33333333333348</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L474" t="n">
         <v>23.97000000000002</v>
@@ -24453,7 +24475,7 @@
         <v>72.50000000000003</v>
       </c>
       <c r="K475" t="n">
-        <v>33.33333333333333</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L475" t="n">
         <v>24.05000000000002</v>
@@ -24504,7 +24526,7 @@
         <v>72.50000000000003</v>
       </c>
       <c r="K476" t="n">
-        <v>52.38095238095242</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L476" t="n">
         <v>24.11000000000002</v>
@@ -24555,7 +24577,7 @@
         <v>72.60000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>54.5454545454548</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L477" t="n">
         <v>24.18000000000002</v>
@@ -24606,7 +24628,7 @@
         <v>72.70000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>71.42857142857211</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L478" t="n">
         <v>24.24000000000002</v>
@@ -24657,7 +24679,7 @@
         <v>72.70000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>64.70588235294169</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L479" t="n">
         <v>24.31000000000002</v>
@@ -24708,7 +24730,7 @@
         <v>72.80000000000001</v>
       </c>
       <c r="K480" t="n">
-        <v>55.55555555555608</v>
+        <v>50</v>
       </c>
       <c r="L480" t="n">
         <v>24.34000000000002</v>
@@ -24810,7 +24832,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K482" t="n">
-        <v>55.55555555555608</v>
+        <v>75.00000000000178</v>
       </c>
       <c r="L482" t="n">
         <v>24.44000000000003</v>
@@ -24861,7 +24883,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="K483" t="n">
-        <v>55.55555555555608</v>
+        <v>66.66666666666923</v>
       </c>
       <c r="L483" t="n">
         <v>24.50000000000003</v>
@@ -24912,7 +24934,7 @@
         <v>73</v>
       </c>
       <c r="K484" t="n">
-        <v>47.36842105263207</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L484" t="n">
         <v>24.53000000000003</v>
@@ -24963,7 +24985,7 @@
         <v>73.5</v>
       </c>
       <c r="K485" t="n">
-        <v>16.66666666666677</v>
+        <v>-40.00000000000099</v>
       </c>
       <c r="L485" t="n">
         <v>24.49000000000003</v>
@@ -25014,7 +25036,7 @@
         <v>73.7</v>
       </c>
       <c r="K486" t="n">
-        <v>16.66666666666677</v>
+        <v>-27.27272727272783</v>
       </c>
       <c r="L486" t="n">
         <v>24.47000000000003</v>
@@ -25065,7 +25087,7 @@
         <v>73.8</v>
       </c>
       <c r="K487" t="n">
-        <v>12.00000000000017</v>
+        <v>-45.45454545454628</v>
       </c>
       <c r="L487" t="n">
         <v>24.43000000000003</v>
@@ -25116,7 +25138,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L488" t="n">
         <v>24.37000000000003</v>
@@ -25167,7 +25189,7 @@
         <v>74</v>
       </c>
       <c r="K489" t="n">
-        <v>8.333333333333531</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L489" t="n">
         <v>24.32000000000003</v>
@@ -25218,7 +25240,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="K490" t="n">
-        <v>-9.090909090909165</v>
+        <v>-50.00000000000059</v>
       </c>
       <c r="L490" t="n">
         <v>24.27000000000003</v>
@@ -25269,7 +25291,7 @@
         <v>74.19999999999999</v>
       </c>
       <c r="K491" t="n">
-        <v>-9.090909090909326</v>
+        <v>-53.84615384615478</v>
       </c>
       <c r="L491" t="n">
         <v>24.20000000000002</v>
@@ -25320,7 +25342,7 @@
         <v>74.29999999999998</v>
       </c>
       <c r="K492" t="n">
-        <v>-13.04347826086977</v>
+        <v>-57.14285714285812</v>
       </c>
       <c r="L492" t="n">
         <v>24.12000000000003</v>
@@ -25371,7 +25393,7 @@
         <v>74.39999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>-4.34782608695667</v>
+        <v>-42.85714285714366</v>
       </c>
       <c r="L493" t="n">
         <v>24.05000000000003</v>
@@ -25422,7 +25444,7 @@
         <v>74.39999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>-14.28571428571465</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L494" t="n">
         <v>23.99000000000003</v>
@@ -25473,7 +25495,7 @@
         <v>74.59999999999998</v>
       </c>
       <c r="K495" t="n">
-        <v>-14.28571428571448</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L495" t="n">
         <v>24.00000000000003</v>
@@ -25524,7 +25546,7 @@
         <v>74.69999999999997</v>
       </c>
       <c r="K496" t="n">
-        <v>-9.090909090909282</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L496" t="n">
         <v>24.00000000000003</v>
@@ -25575,7 +25597,7 @@
         <v>74.89999999999998</v>
       </c>
       <c r="K497" t="n">
-        <v>-4.34782608695667</v>
+        <v>40.00000000000099</v>
       </c>
       <c r="L497" t="n">
         <v>24.03000000000003</v>
@@ -25626,7 +25648,7 @@
         <v>75.09999999999998</v>
       </c>
       <c r="K498" t="n">
-        <v>-16.66666666666701</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L498" t="n">
         <v>24.05000000000003</v>
@@ -25677,7 +25699,7 @@
         <v>75.19999999999997</v>
       </c>
       <c r="K499" t="n">
-        <v>-20.00000000000034</v>
+        <v>9.090909090909385</v>
       </c>
       <c r="L499" t="n">
         <v>24.05000000000003</v>
@@ -25728,7 +25750,7 @@
         <v>75.39999999999998</v>
       </c>
       <c r="K500" t="n">
-        <v>-23.07692307692343</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>24.04000000000003</v>
@@ -25779,7 +25801,7 @@
         <v>75.79999999999998</v>
       </c>
       <c r="K501" t="n">
-        <v>-10.344827586207</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L501" t="n">
         <v>24.08000000000003</v>
@@ -25830,7 +25852,7 @@
         <v>76.29999999999998</v>
       </c>
       <c r="K502" t="n">
-        <v>-23.52941176470606</v>
+        <v>-5.263157894736715</v>
       </c>
       <c r="L502" t="n">
         <v>24.08000000000003</v>
@@ -25881,7 +25903,7 @@
         <v>76.49999999999999</v>
       </c>
       <c r="K503" t="n">
-        <v>-16.6666666666668</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L503" t="n">
         <v>24.09000000000003</v>
@@ -25932,7 +25954,7 @@
         <v>76.89999999999998</v>
       </c>
       <c r="K504" t="n">
-        <v>-2.564102564102615</v>
+        <v>13.04347826086946</v>
       </c>
       <c r="L504" t="n">
         <v>24.14000000000003</v>
@@ -25983,7 +26005,7 @@
         <v>77.19999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>2.70270270270276</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L505" t="n">
         <v>24.14000000000003</v>
@@ -26034,7 +26056,7 @@
         <v>77.19999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>-2.857142857142819</v>
+        <v>-13.04347826086946</v>
       </c>
       <c r="L506" t="n">
         <v>24.13000000000003</v>
@@ -26085,7 +26107,7 @@
         <v>77.19999999999997</v>
       </c>
       <c r="K507" t="n">
-        <v>0</v>
+        <v>-4.761904761904674</v>
       </c>
       <c r="L507" t="n">
         <v>24.10000000000003</v>
@@ -26136,7 +26158,7 @@
         <v>77.29999999999997</v>
       </c>
       <c r="K508" t="n">
-        <v>5.882352941176514</v>
+        <v>4.761904761904674</v>
       </c>
       <c r="L508" t="n">
         <v>24.10000000000003</v>
@@ -26187,7 +26209,7 @@
         <v>77.49999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>-2.857142857142921</v>
+        <v>4.761904761904842</v>
       </c>
       <c r="L509" t="n">
         <v>24.09000000000004</v>
@@ -26238,7 +26260,7 @@
         <v>77.49999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>0</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L510" t="n">
         <v>24.10000000000003</v>
@@ -26289,7 +26311,7 @@
         <v>77.89999999999998</v>
       </c>
       <c r="K511" t="n">
-        <v>13.51351351351356</v>
+        <v>37.5</v>
       </c>
       <c r="L511" t="n">
         <v>24.11000000000003</v>
@@ -26340,7 +26362,7 @@
         <v>77.89999999999998</v>
       </c>
       <c r="K512" t="n">
-        <v>16.66666666666663</v>
+        <v>28.57142857142864</v>
       </c>
       <c r="L512" t="n">
         <v>24.17000000000003</v>
@@ -26391,7 +26413,7 @@
         <v>77.99999999999997</v>
       </c>
       <c r="K513" t="n">
-        <v>16.66666666666673</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L513" t="n">
         <v>24.22000000000003</v>
@@ -26442,7 +26464,7 @@
         <v>78.09999999999997</v>
       </c>
       <c r="K514" t="n">
-        <v>13.51351351351356</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L514" t="n">
         <v>24.22000000000002</v>
@@ -26493,7 +26515,7 @@
         <v>78.09999999999997</v>
       </c>
       <c r="K515" t="n">
-        <v>8.571428571428525</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>24.25000000000002</v>
@@ -26544,7 +26566,7 @@
         <v>78.39999999999996</v>
       </c>
       <c r="K516" t="n">
-        <v>-2.702702702702653</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>24.25000000000002</v>
@@ -26595,7 +26617,7 @@
         <v>78.79999999999995</v>
       </c>
       <c r="K517" t="n">
-        <v>2.564102564102615</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L517" t="n">
         <v>24.29000000000002</v>
@@ -26646,7 +26668,7 @@
         <v>78.79999999999995</v>
       </c>
       <c r="K518" t="n">
-        <v>8.108108108108183</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L518" t="n">
         <v>24.32000000000002</v>
@@ -26697,7 +26719,7 @@
         <v>78.79999999999995</v>
       </c>
       <c r="K519" t="n">
-        <v>11.11111111111113</v>
+        <v>38.46153846153897</v>
       </c>
       <c r="L519" t="n">
         <v>24.37000000000002</v>
@@ -26748,7 +26770,7 @@
         <v>78.79999999999995</v>
       </c>
       <c r="K520" t="n">
-        <v>17.64705882352957</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L520" t="n">
         <v>24.42000000000002</v>
@@ -26799,7 +26821,7 @@
         <v>78.79999999999995</v>
       </c>
       <c r="K521" t="n">
-        <v>6.666666666666707</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L521" t="n">
         <v>24.43000000000002</v>
@@ -26850,7 +26872,7 @@
         <v>78.89999999999995</v>
       </c>
       <c r="K522" t="n">
-        <v>30.7692307692312</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L522" t="n">
         <v>24.45000000000002</v>
@@ -26901,7 +26923,7 @@
         <v>79.39999999999995</v>
       </c>
       <c r="K523" t="n">
-        <v>3.448275862069059</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L523" t="n">
         <v>24.41000000000002</v>
@@ -26952,7 +26974,7 @@
         <v>79.59999999999995</v>
       </c>
       <c r="K524" t="n">
-        <v>-3.70370370370366</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L524" t="n">
         <v>24.40000000000002</v>
@@ -27003,7 +27025,7 @@
         <v>79.69999999999996</v>
       </c>
       <c r="K525" t="n">
-        <v>3.999999999999938</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L525" t="n">
         <v>24.38000000000002</v>
@@ -27054,7 +27076,7 @@
         <v>79.89999999999996</v>
       </c>
       <c r="K526" t="n">
-        <v>11.11111111111105</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L526" t="n">
         <v>24.41000000000002</v>
@@ -27105,7 +27127,7 @@
         <v>79.89999999999996</v>
       </c>
       <c r="K527" t="n">
-        <v>11.11111111111105</v>
+        <v>-9.09090909090915</v>
       </c>
       <c r="L527" t="n">
         <v>24.40000000000002</v>
@@ -27156,7 +27178,7 @@
         <v>79.99999999999997</v>
       </c>
       <c r="K528" t="n">
-        <v>11.11111111111112</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>24.40000000000002</v>
@@ -27207,7 +27229,7 @@
         <v>80.39999999999998</v>
       </c>
       <c r="K529" t="n">
-        <v>3.448275862069008</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L529" t="n">
         <v>24.36000000000002</v>
@@ -27258,7 +27280,7 @@
         <v>80.49999999999997</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L530" t="n">
         <v>24.31000000000002</v>
@@ -27309,7 +27331,7 @@
         <v>80.89999999999998</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="L531" t="n">
         <v>24.30000000000002</v>
@@ -27360,7 +27382,7 @@
         <v>81.19999999999997</v>
       </c>
       <c r="K532" t="n">
-        <v>-9.090909090909012</v>
+        <v>0</v>
       </c>
       <c r="L532" t="n">
         <v>24.25000000000002</v>
@@ -27411,7 +27433,7 @@
         <v>81.49999999999997</v>
       </c>
       <c r="K533" t="n">
-        <v>-2.857142857142898</v>
+        <v>5.263157894736675</v>
       </c>
       <c r="L533" t="n">
         <v>24.28000000000003</v>
@@ -27462,7 +27484,7 @@
         <v>81.49999999999997</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L534" t="n">
         <v>24.29000000000003</v>
@@ -27564,7 +27586,7 @@
         <v>81.79999999999997</v>
       </c>
       <c r="K536" t="n">
-        <v>17.64705882352932</v>
+        <v>15.78947368421052</v>
       </c>
       <c r="L536" t="n">
         <v>24.34000000000002</v>
@@ -27666,7 +27688,7 @@
         <v>82.09999999999997</v>
       </c>
       <c r="K538" t="n">
-        <v>3.030303030303063</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L538" t="n">
         <v>24.36000000000002</v>
@@ -27717,7 +27739,7 @@
         <v>82.19999999999996</v>
       </c>
       <c r="K539" t="n">
-        <v>0</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L539" t="n">
         <v>24.40000000000002</v>
@@ -27768,7 +27790,7 @@
         <v>82.49999999999996</v>
       </c>
       <c r="K540" t="n">
-        <v>-8.108108108108121</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L540" t="n">
         <v>24.42000000000002</v>
@@ -27819,7 +27841,7 @@
         <v>82.69999999999996</v>
       </c>
       <c r="K541" t="n">
-        <v>-12.8205128205128</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L541" t="n">
         <v>24.38000000000002</v>
@@ -27870,7 +27892,7 @@
         <v>82.79999999999995</v>
       </c>
       <c r="K542" t="n">
-        <v>-12.8205128205128</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L542" t="n">
         <v>24.38000000000002</v>
@@ -27921,7 +27943,7 @@
         <v>82.99999999999996</v>
       </c>
       <c r="K543" t="n">
-        <v>-5.555555555555621</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L543" t="n">
         <v>24.33000000000002</v>
@@ -27972,7 +27994,7 @@
         <v>83.29999999999995</v>
       </c>
       <c r="K544" t="n">
-        <v>-2.702702702702739</v>
+        <v>-11.11111111111118</v>
       </c>
       <c r="L544" t="n">
         <v>24.31000000000002</v>
@@ -28023,7 +28045,7 @@
         <v>83.29999999999995</v>
       </c>
       <c r="K545" t="n">
-        <v>0</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L545" t="n">
         <v>24.29000000000002</v>
@@ -28074,7 +28096,7 @@
         <v>83.39999999999995</v>
       </c>
       <c r="K546" t="n">
-        <v>-8.571428571428525</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L546" t="n">
         <v>24.23000000000003</v>
@@ -28125,7 +28147,7 @@
         <v>83.39999999999995</v>
       </c>
       <c r="K547" t="n">
-        <v>-8.571428571428525</v>
+        <v>-38.46153846153897</v>
       </c>
       <c r="L547" t="n">
         <v>24.19000000000003</v>
@@ -28176,7 +28198,7 @@
         <v>83.49999999999994</v>
       </c>
       <c r="K548" t="n">
-        <v>-8.571428571428662</v>
+        <v>-23.07692307692343</v>
       </c>
       <c r="L548" t="n">
         <v>24.15000000000003</v>
@@ -28227,7 +28249,7 @@
         <v>83.59999999999994</v>
       </c>
       <c r="K549" t="n">
-        <v>0</v>
+        <v>-9.090909090909062</v>
       </c>
       <c r="L549" t="n">
         <v>24.11000000000002</v>
@@ -28278,7 +28300,7 @@
         <v>83.59999999999994</v>
       </c>
       <c r="K550" t="n">
-        <v>3.225806451612984</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L550" t="n">
         <v>24.10000000000003</v>
@@ -28329,7 +28351,7 @@
         <v>83.69999999999993</v>
       </c>
       <c r="K551" t="n">
-        <v>-14.28571428571447</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L551" t="n">
         <v>24.10000000000003</v>
@@ -28380,7 +28402,7 @@
         <v>83.69999999999993</v>
       </c>
       <c r="K552" t="n">
-        <v>-4.000000000000125</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L552" t="n">
         <v>24.09000000000003</v>
@@ -28431,7 +28453,7 @@
         <v>83.79999999999993</v>
       </c>
       <c r="K553" t="n">
-        <v>-13.0434782608697</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L553" t="n">
         <v>24.11000000000003</v>
@@ -28482,7 +28504,7 @@
         <v>83.99999999999993</v>
       </c>
       <c r="K554" t="n">
-        <v>-20.00000000000034</v>
+        <v>-42.85714285714452</v>
       </c>
       <c r="L554" t="n">
         <v>24.08000000000003</v>
@@ -28533,7 +28555,7 @@
         <v>83.99999999999993</v>
       </c>
       <c r="K555" t="n">
-        <v>-20.00000000000034</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L555" t="n">
         <v>24.05000000000003</v>
@@ -28584,7 +28606,7 @@
         <v>83.99999999999993</v>
       </c>
       <c r="K556" t="n">
-        <v>-36.36363636363706</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L556" t="n">
         <v>24.03000000000003</v>
@@ -28635,7 +28657,7 @@
         <v>84.09999999999994</v>
       </c>
       <c r="K557" t="n">
-        <v>-23.8095238095242</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L557" t="n">
         <v>24.02000000000003</v>
@@ -28686,7 +28708,7 @@
         <v>84.09999999999994</v>
       </c>
       <c r="K558" t="n">
-        <v>-30.0000000000005</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L558" t="n">
         <v>24.00000000000003</v>
@@ -28737,7 +28759,7 @@
         <v>84.59999999999994</v>
       </c>
       <c r="K559" t="n">
-        <v>-41.66666666666706</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L559" t="n">
         <v>23.94000000000003</v>
@@ -28788,7 +28810,7 @@
         <v>85.39999999999993</v>
       </c>
       <c r="K560" t="n">
-        <v>3.448275862069042</v>
+        <v>17.64705882352942</v>
       </c>
       <c r="L560" t="n">
         <v>23.96000000000003</v>
@@ -28839,7 +28861,7 @@
         <v>85.59999999999994</v>
       </c>
       <c r="K561" t="n">
-        <v>3.448275862069042</v>
+        <v>5.263157894736901</v>
       </c>
       <c r="L561" t="n">
         <v>23.97000000000003</v>
@@ -28890,7 +28912,7 @@
         <v>85.79999999999994</v>
       </c>
       <c r="K562" t="n">
-        <v>-6.666666666666793</v>
+        <v>-10.00000000000007</v>
       </c>
       <c r="L562" t="n">
         <v>23.96000000000003</v>
@@ -28941,7 +28963,7 @@
         <v>85.99999999999994</v>
       </c>
       <c r="K563" t="n">
-        <v>6.666666666666793</v>
+        <v>10.00000000000007</v>
       </c>
       <c r="L563" t="n">
         <v>23.96000000000003</v>
@@ -28992,7 +29014,7 @@
         <v>86.09999999999994</v>
       </c>
       <c r="K564" t="n">
-        <v>-7.14285714285716</v>
+        <v>4.76190476190481</v>
       </c>
       <c r="L564" t="n">
         <v>23.97000000000002</v>
@@ -29043,7 +29065,7 @@
         <v>86.19999999999993</v>
       </c>
       <c r="K565" t="n">
-        <v>-10.344827586207</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>23.97000000000002</v>
@@ -29094,7 +29116,7 @@
         <v>86.29999999999993</v>
       </c>
       <c r="K566" t="n">
-        <v>-3.448275862069042</v>
+        <v>0</v>
       </c>
       <c r="L566" t="n">
         <v>23.98000000000003</v>
@@ -29145,7 +29167,7 @@
         <v>86.59999999999992</v>
       </c>
       <c r="K567" t="n">
-        <v>-12.50000000000017</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L567" t="n">
         <v>23.95000000000003</v>
@@ -29196,7 +29218,7 @@
         <v>86.59999999999992</v>
       </c>
       <c r="K568" t="n">
-        <v>-16.12903225806462</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L568" t="n">
         <v>23.92000000000003</v>
@@ -29247,7 +29269,7 @@
         <v>86.79999999999993</v>
       </c>
       <c r="K569" t="n">
-        <v>-6.250000000000111</v>
+        <v>-28.5714285714289</v>
       </c>
       <c r="L569" t="n">
         <v>23.96000000000003</v>
@@ -29349,7 +29371,7 @@
         <v>87.19999999999993</v>
       </c>
       <c r="K571" t="n">
-        <v>-2.857142857142898</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>23.92000000000002</v>
@@ -29400,7 +29422,7 @@
         <v>87.29999999999993</v>
       </c>
       <c r="K572" t="n">
-        <v>0</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L572" t="n">
         <v>23.93000000000003</v>
@@ -29451,7 +29473,7 @@
         <v>87.49999999999993</v>
       </c>
       <c r="K573" t="n">
-        <v>-8.108108108108121</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L573" t="n">
         <v>23.90000000000003</v>
@@ -29502,7 +29524,7 @@
         <v>87.69999999999993</v>
       </c>
       <c r="K574" t="n">
-        <v>2.702702702702739</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L574" t="n">
         <v>23.90000000000002</v>
@@ -29553,7 +29575,7 @@
         <v>87.69999999999993</v>
       </c>
       <c r="K575" t="n">
-        <v>2.702702702702739</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
         <v>23.91000000000002</v>
@@ -29604,7 +29626,7 @@
         <v>87.79999999999993</v>
       </c>
       <c r="K576" t="n">
-        <v>0</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L576" t="n">
         <v>23.90000000000002</v>
@@ -29655,7 +29677,7 @@
         <v>87.79999999999993</v>
       </c>
       <c r="K577" t="n">
-        <v>-2.702702702702749</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L577" t="n">
         <v>23.92000000000002</v>
@@ -29706,7 +29728,7 @@
         <v>87.79999999999993</v>
       </c>
       <c r="K578" t="n">
-        <v>-2.702702702702749</v>
+        <v>0</v>
       </c>
       <c r="L578" t="n">
         <v>23.94000000000002</v>
@@ -29757,7 +29779,7 @@
         <v>87.89999999999992</v>
       </c>
       <c r="K579" t="n">
-        <v>15.15151515151523</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L579" t="n">
         <v>23.95000000000002</v>
@@ -29808,7 +29830,7 @@
         <v>87.89999999999992</v>
       </c>
       <c r="K580" t="n">
-        <v>-12.0000000000001</v>
+        <v>14.28571428571472</v>
       </c>
       <c r="L580" t="n">
         <v>23.94000000000002</v>
@@ -29859,7 +29881,7 @@
         <v>87.89999999999992</v>
       </c>
       <c r="K581" t="n">
-        <v>-4.347826086956616</v>
+        <v>0</v>
       </c>
       <c r="L581" t="n">
         <v>23.95000000000002</v>
@@ -29910,7 +29932,7 @@
         <v>88.09999999999992</v>
       </c>
       <c r="K582" t="n">
-        <v>-4.347826086956461</v>
+        <v>0</v>
       </c>
       <c r="L582" t="n">
         <v>23.93000000000002</v>
@@ -29961,7 +29983,7 @@
         <v>88.09999999999992</v>
       </c>
       <c r="K583" t="n">
-        <v>-14.28571428571445</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L583" t="n">
         <v>23.93000000000002</v>
@@ -30012,7 +30034,7 @@
         <v>88.19999999999992</v>
       </c>
       <c r="K584" t="n">
-        <v>-4.761904761904875</v>
+        <v>-20.00000000000085</v>
       </c>
       <c r="L584" t="n">
         <v>23.92000000000002</v>
@@ -30063,7 +30085,7 @@
         <v>88.29999999999993</v>
       </c>
       <c r="K585" t="n">
-        <v>4.761904761904842</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L585" t="n">
         <v>23.92000000000002</v>
@@ -30114,7 +30136,7 @@
         <v>88.29999999999993</v>
       </c>
       <c r="K586" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L586" t="n">
         <v>23.93000000000001</v>
@@ -30165,7 +30187,7 @@
         <v>88.29999999999993</v>
       </c>
       <c r="K587" t="n">
-        <v>17.64705882352942</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L587" t="n">
         <v>23.94000000000002</v>
@@ -30216,7 +30238,7 @@
         <v>88.29999999999993</v>
       </c>
       <c r="K588" t="n">
-        <v>17.64705882352942</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>23.95000000000002</v>
@@ -30267,7 +30289,7 @@
         <v>88.29999999999993</v>
       </c>
       <c r="K589" t="n">
-        <v>6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>23.95000000000002</v>
@@ -30318,7 +30340,7 @@
         <v>88.39999999999992</v>
       </c>
       <c r="K590" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L590" t="n">
         <v>23.96000000000003</v>
@@ -30369,7 +30391,7 @@
         <v>88.39999999999992</v>
       </c>
       <c r="K591" t="n">
-        <v>16.66666666666706</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L591" t="n">
         <v>23.97000000000003</v>
@@ -30420,7 +30442,7 @@
         <v>88.39999999999992</v>
       </c>
       <c r="K592" t="n">
-        <v>9.090909090909268</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L592" t="n">
         <v>24.00000000000003</v>
@@ -30471,7 +30493,7 @@
         <v>88.49999999999991</v>
       </c>
       <c r="K593" t="n">
-        <v>40.00000000000043</v>
+        <v>100.0000000000012</v>
       </c>
       <c r="L593" t="n">
         <v>24.04000000000003</v>
@@ -30573,7 +30595,7 @@
         <v>88.89999999999992</v>
       </c>
       <c r="K595" t="n">
-        <v>16.66666666666677</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L595" t="n">
         <v>24.07000000000003</v>
@@ -30624,7 +30646,7 @@
         <v>89.19999999999992</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L596" t="n">
         <v>24.06000000000002</v>
@@ -30675,7 +30697,7 @@
         <v>89.59999999999992</v>
       </c>
       <c r="K597" t="n">
-        <v>22.22222222222238</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L597" t="n">
         <v>24.09000000000002</v>
@@ -30726,7 +30748,7 @@
         <v>90.29999999999993</v>
       </c>
       <c r="K598" t="n">
-        <v>44.00000000000006</v>
+        <v>50</v>
       </c>
       <c r="L598" t="n">
         <v>24.19000000000003</v>
@@ -30777,7 +30799,7 @@
         <v>90.29999999999993</v>
       </c>
       <c r="K599" t="n">
-        <v>41.66666666666657</v>
+        <v>47.36842105263136</v>
       </c>
       <c r="L599" t="n">
         <v>24.29000000000003</v>
@@ -30828,7 +30850,7 @@
         <v>90.49999999999993</v>
       </c>
       <c r="K600" t="n">
-        <v>46.15384615384598</v>
+        <v>52.38095238095206</v>
       </c>
       <c r="L600" t="n">
         <v>24.40000000000003</v>
@@ -30879,7 +30901,7 @@
         <v>90.99999999999993</v>
       </c>
       <c r="K601" t="n">
-        <v>54.83870967741918</v>
+        <v>61.53846153846126</v>
       </c>
       <c r="L601" t="n">
         <v>24.56000000000003</v>
@@ -30930,7 +30952,7 @@
         <v>91.09999999999994</v>
       </c>
       <c r="K602" t="n">
-        <v>66.66666666666636</v>
+        <v>61.53846153846105</v>
       </c>
       <c r="L602" t="n">
         <v>24.73000000000003</v>
@@ -30981,7 +31003,7 @@
         <v>91.49999999999994</v>
       </c>
       <c r="K603" t="n">
-        <v>47.05882352941143</v>
+        <v>49.9999999999995</v>
       </c>
       <c r="L603" t="n">
         <v>24.85000000000003</v>
@@ -31032,7 +31054,7 @@
         <v>91.69999999999995</v>
       </c>
       <c r="K604" t="n">
-        <v>48.57142857142826</v>
+        <v>49.99999999999962</v>
       </c>
       <c r="L604" t="n">
         <v>25.01000000000003</v>
@@ -31083,7 +31105,7 @@
         <v>92.09999999999995</v>
       </c>
       <c r="K605" t="n">
-        <v>31.57894736842082</v>
+        <v>44.82758620689605</v>
       </c>
       <c r="L605" t="n">
         <v>25.11000000000003</v>
@@ -31134,7 +31156,7 @@
         <v>92.29999999999995</v>
       </c>
       <c r="K606" t="n">
-        <v>34.99999999999972</v>
+        <v>40.74074074074019</v>
       </c>
       <c r="L606" t="n">
         <v>25.26000000000003</v>
@@ -31185,7 +31207,7 @@
         <v>92.39999999999995</v>
       </c>
       <c r="K607" t="n">
-        <v>31.70731707317057</v>
+        <v>14.28571428571417</v>
       </c>
       <c r="L607" t="n">
         <v>25.36000000000002</v>
@@ -31236,7 +31258,7 @@
         <v>93.09999999999995</v>
       </c>
       <c r="K608" t="n">
-        <v>12.49999999999996</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L608" t="n">
         <v>25.32000000000003</v>
@@ -31287,7 +31309,7 @@
         <v>93.49999999999994</v>
       </c>
       <c r="K609" t="n">
-        <v>19.23076923076917</v>
+        <v>-6.666666666666611</v>
       </c>
       <c r="L609" t="n">
         <v>25.32000000000003</v>
@@ -31338,7 +31360,7 @@
         <v>93.49999999999994</v>
       </c>
       <c r="K610" t="n">
-        <v>17.64705882352931</v>
+        <v>-27.99999999999982</v>
       </c>
       <c r="L610" t="n">
         <v>25.30000000000003</v>
@@ -31389,7 +31411,7 @@
         <v>93.59999999999994</v>
       </c>
       <c r="K611" t="n">
-        <v>19.23076923076917</v>
+        <v>-27.99999999999997</v>
       </c>
       <c r="L611" t="n">
         <v>25.24000000000003</v>
@@ -31440,7 +31462,7 @@
         <v>93.69999999999993</v>
       </c>
       <c r="K612" t="n">
-        <v>16.98113207547163</v>
+        <v>-18.18181818181821</v>
       </c>
       <c r="L612" t="n">
         <v>25.16000000000003</v>
@@ -31491,7 +31513,7 @@
         <v>93.79999999999993</v>
       </c>
       <c r="K613" t="n">
-        <v>16.9811320754717</v>
+        <v>-23.80952380952404</v>
       </c>
       <c r="L613" t="n">
         <v>25.13000000000003</v>
@@ -31542,7 +31564,7 @@
         <v>93.99999999999993</v>
       </c>
       <c r="K614" t="n">
-        <v>16.98113207547163</v>
+        <v>-15.78947368421075</v>
       </c>
       <c r="L614" t="n">
         <v>25.06000000000003</v>
@@ -31593,7 +31615,7 @@
         <v>94.19999999999993</v>
       </c>
       <c r="K615" t="n">
-        <v>16.9811320754717</v>
+        <v>-15.78947368421056</v>
       </c>
       <c r="L615" t="n">
         <v>25.05000000000003</v>
@@ -31644,7 +31666,7 @@
         <v>94.19999999999993</v>
       </c>
       <c r="K616" t="n">
-        <v>23.99999999999999</v>
+        <v>-11.11111111111118</v>
       </c>
       <c r="L616" t="n">
         <v>25.02000000000004</v>
@@ -31695,7 +31717,7 @@
         <v>94.19999999999993</v>
       </c>
       <c r="K617" t="n">
-        <v>17.39130434782607</v>
+        <v>45.45454545454628</v>
       </c>
       <c r="L617" t="n">
         <v>25.00000000000004</v>
@@ -31797,7 +31819,7 @@
         <v>94.39999999999992</v>
       </c>
       <c r="K619" t="n">
-        <v>2.43902439024394</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L619" t="n">
         <v>25.05000000000003</v>
@@ -31848,7 +31870,7 @@
         <v>94.49999999999991</v>
       </c>
       <c r="K620" t="n">
-        <v>-5</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L620" t="n">
         <v>25.05000000000003</v>
@@ -31899,7 +31921,7 @@
         <v>94.49999999999991</v>
       </c>
       <c r="K621" t="n">
-        <v>-20.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L621" t="n">
         <v>25.04000000000003</v>
@@ -31950,7 +31972,7 @@
         <v>94.59999999999991</v>
       </c>
       <c r="K622" t="n">
-        <v>-25.71428571428599</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L622" t="n">
         <v>25.03000000000004</v>
@@ -32001,7 +32023,7 @@
         <v>94.6999999999999</v>
       </c>
       <c r="K623" t="n">
-        <v>-12.50000000000011</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L623" t="n">
         <v>25.02000000000004</v>
@@ -32052,7 +32074,7 @@
         <v>94.7999999999999</v>
       </c>
       <c r="K624" t="n">
-        <v>-16.12903225806477</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>25.04000000000003</v>
@@ -32103,7 +32125,7 @@
         <v>94.89999999999989</v>
       </c>
       <c r="K625" t="n">
-        <v>0</v>
+        <v>14.28571428571479</v>
       </c>
       <c r="L625" t="n">
         <v>25.05000000000004</v>
@@ -32154,7 +32176,7 @@
         <v>95.2999999999999</v>
       </c>
       <c r="K626" t="n">
-        <v>6.666666666666887</v>
+        <v>45.45454545454686</v>
       </c>
       <c r="L626" t="n">
         <v>25.10000000000004</v>
@@ -32205,7 +32227,7 @@
         <v>95.2999999999999</v>
       </c>
       <c r="K627" t="n">
-        <v>10.3448275862071</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L627" t="n">
         <v>25.15000000000004</v>
@@ -32256,7 +32278,7 @@
         <v>95.4999999999999</v>
       </c>
       <c r="K628" t="n">
-        <v>33.33333333333393</v>
+        <v>27.27272727272751</v>
       </c>
       <c r="L628" t="n">
         <v>25.19000000000004</v>
@@ -32307,7 +32329,7 @@
         <v>95.6999999999999</v>
       </c>
       <c r="K629" t="n">
-        <v>9.090909090909223</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L629" t="n">
         <v>25.20000000000004</v>
@@ -32358,7 +32380,7 @@
         <v>95.7999999999999</v>
       </c>
       <c r="K630" t="n">
-        <v>13.04347826086985</v>
+        <v>23.07692307692343</v>
       </c>
       <c r="L630" t="n">
         <v>25.23000000000004</v>
@@ -32409,7 +32431,7 @@
         <v>96.09999999999989</v>
       </c>
       <c r="K631" t="n">
-        <v>-4.000000000000125</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L631" t="n">
         <v>25.23000000000004</v>
@@ -32460,7 +32482,7 @@
         <v>96.39999999999989</v>
       </c>
       <c r="K632" t="n">
-        <v>11.1111111111113</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L632" t="n">
         <v>25.27000000000004</v>
@@ -32511,7 +32533,7 @@
         <v>96.39999999999989</v>
       </c>
       <c r="K633" t="n">
-        <v>7.692307692307766</v>
+        <v>12.5</v>
       </c>
       <c r="L633" t="n">
         <v>25.30000000000003</v>
@@ -32562,7 +32584,7 @@
         <v>96.39999999999989</v>
       </c>
       <c r="K634" t="n">
-        <v>16.66666666666701</v>
+        <v>6.666666666666761</v>
       </c>
       <c r="L634" t="n">
         <v>25.32000000000004</v>
@@ -32613,7 +32635,7 @@
         <v>96.89999999999989</v>
       </c>
       <c r="K635" t="n">
-        <v>-11.1111111111113</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L635" t="n">
         <v>25.28000000000004</v>
@@ -32664,7 +32686,7 @@
         <v>97.09999999999989</v>
       </c>
       <c r="K636" t="n">
-        <v>-3.448275862069059</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L636" t="n">
         <v>25.22000000000003</v>
@@ -32715,7 +32737,7 @@
         <v>97.09999999999989</v>
       </c>
       <c r="K637" t="n">
-        <v>-3.448275862069059</v>
+        <v>-25</v>
       </c>
       <c r="L637" t="n">
         <v>25.16000000000004</v>
@@ -32766,7 +32788,7 @@
         <v>97.09999999999989</v>
       </c>
       <c r="K638" t="n">
-        <v>0</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L638" t="n">
         <v>25.12000000000004</v>
@@ -32817,7 +32839,7 @@
         <v>97.1999999999999</v>
       </c>
       <c r="K639" t="n">
-        <v>-7.142857142857288</v>
+        <v>-28.57142857142861</v>
       </c>
       <c r="L639" t="n">
         <v>25.09000000000004</v>
@@ -32919,7 +32941,7 @@
         <v>97.2999999999999</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L641" t="n">
         <v>25.06000000000004</v>
@@ -32970,7 +32992,7 @@
         <v>97.59999999999989</v>
       </c>
       <c r="K642" t="n">
-        <v>13.33333333333347</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>25.06000000000004</v>
@@ -33021,7 +33043,7 @@
         <v>97.7999999999999</v>
       </c>
       <c r="K643" t="n">
-        <v>3.225806451612955</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L643" t="n">
         <v>25.04000000000004</v>
@@ -33072,7 +33094,7 @@
         <v>97.9999999999999</v>
       </c>
       <c r="K644" t="n">
-        <v>6.249999999999972</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L644" t="n">
         <v>25.04000000000004</v>
@@ -33123,7 +33145,7 @@
         <v>98.09999999999989</v>
       </c>
       <c r="K645" t="n">
-        <v>6.249999999999972</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L645" t="n">
         <v>25.10000000000003</v>
@@ -33174,7 +33196,7 @@
         <v>98.4999999999999</v>
       </c>
       <c r="K646" t="n">
-        <v>6.249999999999972</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L646" t="n">
         <v>25.18000000000004</v>
@@ -33225,7 +33247,7 @@
         <v>98.7999999999999</v>
       </c>
       <c r="K647" t="n">
-        <v>-2.857142857142898</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L647" t="n">
         <v>25.23000000000004</v>
@@ -33276,7 +33298,7 @@
         <v>98.89999999999989</v>
       </c>
       <c r="K648" t="n">
-        <v>0</v>
+        <v>29.41176470588255</v>
       </c>
       <c r="L648" t="n">
         <v>25.27000000000003</v>
@@ -33327,7 +33349,7 @@
         <v>98.99999999999989</v>
       </c>
       <c r="K649" t="n">
-        <v>3.030303030303089</v>
+        <v>17.64705882352957</v>
       </c>
       <c r="L649" t="n">
         <v>25.31000000000003</v>
@@ -33378,7 +33400,7 @@
         <v>99.09999999999988</v>
       </c>
       <c r="K650" t="n">
-        <v>3.030303030302981</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L650" t="n">
         <v>25.35000000000003</v>
@@ -33429,7 +33451,7 @@
         <v>99.29999999999988</v>
       </c>
       <c r="K651" t="n">
-        <v>6.25</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L651" t="n">
         <v>25.37000000000003</v>
@@ -33480,7 +33502,7 @@
         <v>99.49999999999989</v>
       </c>
       <c r="K652" t="n">
-        <v>3.225806451612841</v>
+        <v>17.64705882352936</v>
       </c>
       <c r="L652" t="n">
         <v>25.38000000000003</v>
@@ -33531,7 +33553,7 @@
         <v>99.79999999999988</v>
       </c>
       <c r="K653" t="n">
-        <v>11.76470588235293</v>
+        <v>22.22222222222235</v>
       </c>
       <c r="L653" t="n">
         <v>25.44000000000003</v>
@@ -33582,7 +33604,7 @@
         <v>99.99999999999989</v>
       </c>
       <c r="K654" t="n">
-        <v>16.66666666666663</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L654" t="n">
         <v>25.50000000000003</v>
@@ -33633,7 +33655,7 @@
         <v>100.0999999999999</v>
       </c>
       <c r="K655" t="n">
-        <v>37.50000000000011</v>
+        <v>12.50000000000011</v>
       </c>
       <c r="L655" t="n">
         <v>25.56000000000003</v>
@@ -33684,7 +33706,7 @@
         <v>100.2999999999999</v>
       </c>
       <c r="K656" t="n">
-        <v>37.50000000000011</v>
+        <v>46.66666666666706</v>
       </c>
       <c r="L656" t="n">
         <v>25.60000000000003</v>
@@ -33735,7 +33757,7 @@
         <v>100.4999999999999</v>
       </c>
       <c r="K657" t="n">
-        <v>29.41176470588243</v>
+        <v>37.50000000000022</v>
       </c>
       <c r="L657" t="n">
         <v>25.65000000000003</v>
@@ -33786,7 +33808,7 @@
         <v>100.6999999999999</v>
       </c>
       <c r="K658" t="n">
-        <v>22.22222222222228</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L658" t="n">
         <v>25.69000000000003</v>
@@ -33837,7 +33859,7 @@
         <v>100.8999999999999</v>
       </c>
       <c r="K659" t="n">
-        <v>29.72972972972986</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L659" t="n">
         <v>25.76000000000003</v>
@@ -33888,7 +33910,7 @@
         <v>100.8999999999999</v>
       </c>
       <c r="K660" t="n">
-        <v>27.77777777777782</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L660" t="n">
         <v>25.82000000000003</v>
@@ -33939,7 +33961,7 @@
         <v>101.0999999999999</v>
       </c>
       <c r="K661" t="n">
-        <v>31.57894736842105</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L661" t="n">
         <v>25.92000000000003</v>
@@ -33990,7 +34012,7 @@
         <v>101.1999999999999</v>
       </c>
       <c r="K662" t="n">
-        <v>22.22222222222228</v>
+        <v>28.57142857142861</v>
       </c>
       <c r="L662" t="n">
         <v>25.99000000000004</v>
@@ -34041,7 +34063,7 @@
         <v>101.4999999999999</v>
       </c>
       <c r="K663" t="n">
-        <v>18.91891891891896</v>
+        <v>-6.666666666666525</v>
       </c>
       <c r="L663" t="n">
         <v>26.00000000000004</v>
@@ -34092,7 +34114,7 @@
         <v>101.6999999999999</v>
       </c>
       <c r="K664" t="n">
-        <v>18.91891891891896</v>
+        <v>0</v>
       </c>
       <c r="L664" t="n">
         <v>26.01000000000004</v>
@@ -34143,7 +34165,7 @@
         <v>101.6999999999999</v>
       </c>
       <c r="K665" t="n">
-        <v>16.66666666666673</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L665" t="n">
         <v>26.01000000000004</v>
@@ -34194,7 +34216,7 @@
         <v>101.8999999999999</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L666" t="n">
         <v>25.97000000000005</v>
@@ -34245,7 +34267,7 @@
         <v>101.9999999999999</v>
       </c>
       <c r="K667" t="n">
-        <v>12.5</v>
+        <v>7.692307692307546</v>
       </c>
       <c r="L667" t="n">
         <v>25.96000000000004</v>
@@ -34296,7 +34318,7 @@
         <v>102.0999999999999</v>
       </c>
       <c r="K668" t="n">
-        <v>12.50000000000011</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L668" t="n">
         <v>25.96000000000004</v>
@@ -34347,7 +34369,7 @@
         <v>102.0999999999999</v>
       </c>
       <c r="K669" t="n">
-        <v>16.12903225806455</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L669" t="n">
         <v>25.94000000000004</v>
@@ -34398,7 +34420,7 @@
         <v>102.5999999999999</v>
       </c>
       <c r="K670" t="n">
-        <v>-2.857142857142796</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L670" t="n">
         <v>25.87000000000004</v>
@@ -34449,7 +34471,7 @@
         <v>102.6999999999999</v>
       </c>
       <c r="K671" t="n">
-        <v>0</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L671" t="n">
         <v>25.77000000000005</v>
@@ -34500,7 +34522,7 @@
         <v>102.7999999999999</v>
       </c>
       <c r="K672" t="n">
-        <v>-9.090909090909053</v>
+        <v>-53.8461538461545</v>
       </c>
       <c r="L672" t="n">
         <v>25.67000000000004</v>
@@ -34551,7 +34573,7 @@
         <v>102.8999999999999</v>
       </c>
       <c r="K673" t="n">
-        <v>-22.58064516129044</v>
+        <v>-83.33333333333512</v>
       </c>
       <c r="L673" t="n">
         <v>25.59000000000004</v>
@@ -34602,7 +34624,7 @@
         <v>103.1999999999999</v>
       </c>
       <c r="K674" t="n">
-        <v>-37.50000000000028</v>
+        <v>-86.66666666666836</v>
       </c>
       <c r="L674" t="n">
         <v>25.46000000000004</v>
@@ -34653,7 +34675,7 @@
         <v>103.2999999999999</v>
       </c>
       <c r="K675" t="n">
-        <v>-37.50000000000011</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L675" t="n">
         <v>25.34000000000004</v>
@@ -34704,7 +34726,7 @@
         <v>103.3999999999999</v>
       </c>
       <c r="K676" t="n">
-        <v>-41.93548387096804</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L676" t="n">
         <v>25.25000000000004</v>
@@ -34755,7 +34777,7 @@
         <v>103.4999999999999</v>
       </c>
       <c r="K677" t="n">
-        <v>-40.00000000000036</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L677" t="n">
         <v>25.14000000000004</v>
@@ -34806,7 +34828,7 @@
         <v>103.8999999999999</v>
       </c>
       <c r="K678" t="n">
-        <v>-18.7500000000002</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L678" t="n">
         <v>25.08000000000004</v>
@@ -34857,7 +34879,7 @@
         <v>103.8999999999999</v>
       </c>
       <c r="K679" t="n">
-        <v>-26.66666666666694</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L679" t="n">
         <v>25.02000000000004</v>
@@ -34908,7 +34930,7 @@
         <v>104.0999999999999</v>
       </c>
       <c r="K680" t="n">
-        <v>-31.25000000000025</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L680" t="n">
         <v>24.99000000000004</v>
@@ -34959,7 +34981,7 @@
         <v>104.1999999999999</v>
       </c>
       <c r="K681" t="n">
-        <v>-41.93548387096804</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L681" t="n">
         <v>24.96000000000004</v>
@@ -35010,7 +35032,7 @@
         <v>104.2999999999999</v>
       </c>
       <c r="K682" t="n">
-        <v>-35.48387096774221</v>
+        <v>0</v>
       </c>
       <c r="L682" t="n">
         <v>24.95000000000004</v>
@@ -35061,7 +35083,7 @@
         <v>104.6999999999999</v>
       </c>
       <c r="K683" t="n">
-        <v>-12.50000000000011</v>
+        <v>46.66666666666618</v>
       </c>
       <c r="L683" t="n">
         <v>24.99000000000004</v>
@@ -35112,7 +35134,7 @@
         <v>104.7999999999999</v>
       </c>
       <c r="K684" t="n">
-        <v>-16.12903225806462</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L684" t="n">
         <v>25.07000000000004</v>
@@ -35163,7 +35185,7 @@
         <v>105.1999999999999</v>
       </c>
       <c r="K685" t="n">
-        <v>-25.71428571428578</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L685" t="n">
         <v>25.10000000000004</v>
@@ -35214,7 +35236,7 @@
         <v>105.4999999999999</v>
       </c>
       <c r="K686" t="n">
-        <v>-27.77777777777793</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>25.09000000000004</v>
@@ -35265,7 +35287,7 @@
         <v>105.5999999999999</v>
       </c>
       <c r="K687" t="n">
-        <v>-33.33333333333336</v>
+        <v>-29.41176470588206</v>
       </c>
       <c r="L687" t="n">
         <v>25.08000000000004</v>
@@ -35316,7 +35338,7 @@
         <v>105.7999999999999</v>
       </c>
       <c r="K688" t="n">
-        <v>-35.13513513513512</v>
+        <v>-36.84210526315747</v>
       </c>
       <c r="L688" t="n">
         <v>25.01000000000004</v>
@@ -35367,7 +35389,7 @@
         <v>106.1999999999999</v>
       </c>
       <c r="K689" t="n">
-        <v>-41.46341463414638</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L689" t="n">
         <v>24.90000000000004</v>
@@ -35418,7 +35440,7 @@
         <v>106.4999999999999</v>
       </c>
       <c r="K690" t="n">
-        <v>-23.07692307692318</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L690" t="n">
         <v>24.84000000000004</v>
@@ -35469,7 +35491,7 @@
         <v>106.8999999999999</v>
       </c>
       <c r="K691" t="n">
-        <v>-28.57142857142863</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L691" t="n">
         <v>24.75000000000004</v>
@@ -35520,7 +35542,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K692" t="n">
-        <v>-23.80952380952387</v>
+        <v>-56.52173913043508</v>
       </c>
       <c r="L692" t="n">
         <v>24.66000000000004</v>
@@ -35571,7 +35593,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K693" t="n">
-        <v>-21.95121951219512</v>
+        <v>-63.6363636363639</v>
       </c>
       <c r="L693" t="n">
         <v>24.53000000000004</v>
@@ -35622,7 +35644,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K694" t="n">
-        <v>-15.78947368421048</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L694" t="n">
         <v>24.39000000000004</v>
@@ -35673,7 +35695,7 @@
         <v>106.9999999999999</v>
       </c>
       <c r="K695" t="n">
-        <v>-18.91891891891896</v>
+        <v>-46.66666666666706</v>
       </c>
       <c r="L695" t="n">
         <v>24.29000000000005</v>
@@ -35724,7 +35746,7 @@
         <v>107.0999999999999</v>
       </c>
       <c r="K696" t="n">
-        <v>-18.91891891891896</v>
+        <v>-33.33333333333396</v>
       </c>
       <c r="L696" t="n">
         <v>24.23000000000005</v>
@@ -35775,7 +35797,7 @@
         <v>107.0999999999999</v>
       </c>
       <c r="K697" t="n">
-        <v>-16.66666666666673</v>
+        <v>-23.07692307692369</v>
       </c>
       <c r="L697" t="n">
         <v>24.18000000000005</v>
@@ -35826,7 +35848,7 @@
         <v>107.0999999999999</v>
       </c>
       <c r="K698" t="n">
-        <v>-31.25000000000011</v>
+        <v>11.11111111111116</v>
       </c>
       <c r="L698" t="n">
         <v>24.15000000000004</v>
@@ -35877,7 +35899,7 @@
         <v>107.3999999999998</v>
       </c>
       <c r="K699" t="n">
-        <v>-20.00000000000006</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L699" t="n">
         <v>24.19000000000005</v>
@@ -35928,7 +35950,7 @@
         <v>107.6999999999998</v>
       </c>
       <c r="K700" t="n">
-        <v>-22.22222222222236</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L700" t="n">
         <v>24.17000000000005</v>
@@ -35979,7 +36001,7 @@
         <v>107.6999999999998</v>
       </c>
       <c r="K701" t="n">
-        <v>-20.00000000000014</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L701" t="n">
         <v>24.19000000000005</v>
@@ -36030,7 +36052,7 @@
         <v>107.8999999999998</v>
       </c>
       <c r="K702" t="n">
-        <v>-16.6666666666668</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L702" t="n">
         <v>24.22000000000005</v>
@@ -36081,7 +36103,7 @@
         <v>108.0999999999999</v>
       </c>
       <c r="K703" t="n">
-        <v>-23.52941176470596</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L703" t="n">
         <v>24.27000000000005</v>
@@ -36132,7 +36154,7 @@
         <v>108.1999999999998</v>
       </c>
       <c r="K704" t="n">
-        <v>-23.52941176470606</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L704" t="n">
         <v>24.33000000000005</v>
@@ -36183,7 +36205,7 @@
         <v>108.2999999999998</v>
       </c>
       <c r="K705" t="n">
-        <v>-16.12903225806469</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L705" t="n">
         <v>24.38000000000005</v>
@@ -36234,7 +36256,7 @@
         <v>108.2999999999998</v>
       </c>
       <c r="K706" t="n">
-        <v>-7.142857142857197</v>
+        <v>33.33333333333383</v>
       </c>
       <c r="L706" t="n">
         <v>24.42000000000005</v>
@@ -36285,7 +36307,7 @@
         <v>108.3999999999998</v>
       </c>
       <c r="K707" t="n">
-        <v>-7.142857142857234</v>
+        <v>23.07692307692343</v>
       </c>
       <c r="L707" t="n">
         <v>24.45000000000005</v>
@@ -36387,7 +36409,7 @@
         <v>108.4999999999998</v>
       </c>
       <c r="K709" t="n">
-        <v>13.0434782608697</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L709" t="n">
         <v>24.47000000000005</v>
@@ -36438,7 +36460,7 @@
         <v>108.5999999999998</v>
       </c>
       <c r="K710" t="n">
-        <v>-4.76190476190477</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L710" t="n">
         <v>24.48000000000005</v>
@@ -36489,7 +36511,7 @@
         <v>108.5999999999998</v>
       </c>
       <c r="K711" t="n">
-        <v>17.64705882352986</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L711" t="n">
         <v>24.49000000000006</v>
@@ -36540,7 +36562,7 @@
         <v>109.0999999999998</v>
       </c>
       <c r="K712" t="n">
-        <v>-14.28571428571455</v>
+        <v>-80.00000000000234</v>
       </c>
       <c r="L712" t="n">
         <v>24.43000000000006</v>
@@ -36591,7 +36613,7 @@
         <v>109.2999999999998</v>
       </c>
       <c r="K713" t="n">
-        <v>-4.347826086956642</v>
+        <v>-63.63636363636472</v>
       </c>
       <c r="L713" t="n">
         <v>24.37000000000005</v>
@@ -36642,7 +36664,7 @@
         <v>109.2999999999998</v>
       </c>
       <c r="K714" t="n">
-        <v>-4.347826086956642</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L714" t="n">
         <v>24.30000000000005</v>
@@ -36693,7 +36715,7 @@
         <v>109.2999999999998</v>
       </c>
       <c r="K715" t="n">
-        <v>-4.347826086956642</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L715" t="n">
         <v>24.24000000000005</v>
@@ -36744,7 +36766,7 @@
         <v>109.3999999999998</v>
       </c>
       <c r="K716" t="n">
-        <v>-13.04347826086969</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L716" t="n">
         <v>24.17000000000005</v>
@@ -36795,7 +36817,7 @@
         <v>109.4999999999998</v>
       </c>
       <c r="K717" t="n">
-        <v>-8.333333333333384</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L717" t="n">
         <v>24.12000000000005</v>
@@ -36846,7 +36868,7 @@
         <v>109.5999999999998</v>
       </c>
       <c r="K718" t="n">
-        <v>-3.99999999999996</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L718" t="n">
         <v>24.08000000000005</v>
@@ -36897,7 +36919,7 @@
         <v>109.5999999999998</v>
       </c>
       <c r="K719" t="n">
-        <v>-18.18181818181833</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L719" t="n">
         <v>24.05000000000005</v>
@@ -36948,7 +36970,7 @@
         <v>110.0999999999998</v>
       </c>
       <c r="K720" t="n">
-        <v>16.66666666666691</v>
+        <v>20.00000000000005</v>
       </c>
       <c r="L720" t="n">
         <v>24.08000000000005</v>
@@ -36999,7 +37021,7 @@
         <v>110.6999999999998</v>
       </c>
       <c r="K721" t="n">
-        <v>-6.666666666666707</v>
+        <v>12.5</v>
       </c>
       <c r="L721" t="n">
         <v>24.05000000000005</v>
@@ -37050,7 +37072,7 @@
         <v>110.7999999999998</v>
       </c>
       <c r="K722" t="n">
-        <v>-17.24137931034505</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L722" t="n">
         <v>24.06000000000005</v>
@@ -37101,7 +37123,7 @@
         <v>110.7999999999998</v>
       </c>
       <c r="K723" t="n">
-        <v>-25.92592592592641</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L723" t="n">
         <v>24.05000000000005</v>
@@ -37152,7 +37174,7 @@
         <v>111.1999999999998</v>
       </c>
       <c r="K724" t="n">
-        <v>-13.33333333333341</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L724" t="n">
         <v>24.08000000000005</v>

--- a/BackTest/2019-11-01 BackTest LBA.xlsx
+++ b/BackTest/2019-11-01 BackTest LBA.xlsx
@@ -451,20 +451,14 @@
         <v>21.75833333333336</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>21.7766666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>22</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>21.79333333333336</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>21.81000000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>21.82500000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>21.83500000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>21.7</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>21.85166666666669</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>21.86500000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>21.87500000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>21.8866666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>21.89833333333337</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>21.9116666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>21.92000000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>21.9266666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>21.7</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>21.93000000000003</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>21.94833333333336</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>21.96666666666669</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>21.97333333333336</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>21.98166666666669</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>21.97833333333336</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>21.97500000000003</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>21.97333333333336</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>21.9716666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>21.96833333333336</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>22</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>21.9616666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>21.9</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>21.95833333333336</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>22</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>21.95333333333337</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>22</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>21.9566666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>21.96333333333337</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>21.97000000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>21.98000000000003</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>21.99000000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>22.00500000000003</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>22.02333333333336</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>22.03833333333336</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>23</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1893,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1932,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1971,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2010,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2049,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2088,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2127,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2166,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2205,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2244,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2283,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2322,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2361,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2439,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2478,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2556,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2595,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2634,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2712,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2790,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2907,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2946,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2985,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3024,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3063,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3141,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3180,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3219,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3297,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3336,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3368,20 +3006,14 @@
         <v>22.43166666666667</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>21.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3409,20 +3041,14 @@
         <v>22.44</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3450,20 +3076,14 @@
         <v>22.43666666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3491,20 +3111,14 @@
         <v>22.43333333333334</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3538,12 +3152,12 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3661,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
@@ -3702,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
@@ -3737,14 +3351,12 @@
         <v>22.475</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
@@ -5066,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5381,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5416,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -22076,7 +21688,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest LBA.xlsx
+++ b/BackTest/2019-11-01 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-442075.3216</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-442075.3216</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>20.9</v>
@@ -521,7 +521,7 @@
         <v>-442075.3216</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>20.9</v>
@@ -562,7 +562,7 @@
         <v>-715539.8466</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>20.9</v>
@@ -603,7 +603,7 @@
         <v>-705047.5338000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>20.7</v>
@@ -644,7 +644,7 @@
         <v>-705047.5338000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>21</v>
@@ -685,7 +685,7 @@
         <v>-650846.3775000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>21</v>
@@ -726,7 +726,7 @@
         <v>-643246.3775000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>21.1</v>
@@ -767,7 +767,7 @@
         <v>-654496.1132</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>21.3</v>
@@ -808,7 +808,7 @@
         <v>-654496.1132</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>21.2</v>
@@ -849,7 +849,7 @@
         <v>-656111.797</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>21.2</v>
@@ -890,7 +890,7 @@
         <v>-638471.2684323944</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>21</v>
@@ -931,7 +931,7 @@
         <v>-638471.2684323944</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>21.3</v>
@@ -972,7 +972,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>21.3</v>
@@ -1013,7 +1013,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>21.4</v>
@@ -1054,7 +1054,7 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>21.4</v>
@@ -1095,7 +1095,7 @@
         <v>-526199.6329277215</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>21.4</v>
@@ -1136,7 +1136,7 @@
         <v>-528248.0609277214</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>21.5</v>
@@ -1177,7 +1177,7 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>21.3</v>
@@ -1218,7 +1218,7 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>22</v>
@@ -1259,11 +1259,9 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>20.9</v>
       </c>
@@ -1300,11 +1298,9 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>20.9</v>
       </c>
@@ -1848,9 +1844,11 @@
         <v>-275785.3984367305</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>22</v>
+      </c>
       <c r="J37" t="n">
         <v>20.9</v>
       </c>
@@ -2004,9 +2002,11 @@
         <v>-305283.9213367305</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>21.8</v>
+      </c>
       <c r="J41" t="n">
         <v>20.9</v>
       </c>
@@ -2043,9 +2043,11 @@
         <v>-319643.9213367305</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>21.8</v>
+      </c>
       <c r="J42" t="n">
         <v>20.9</v>
       </c>
@@ -2121,9 +2123,11 @@
         <v>-302587.0457367304</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J44" t="n">
         <v>20.9</v>
       </c>
@@ -2160,9 +2164,11 @@
         <v>-302127.7636367304</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>21.8</v>
+      </c>
       <c r="J45" t="n">
         <v>20.9</v>
       </c>
@@ -2199,9 +2205,11 @@
         <v>-302127.7636367304</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J46" t="n">
         <v>20.9</v>
       </c>
@@ -2277,9 +2285,11 @@
         <v>-251727.7636367304</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22.1</v>
+      </c>
       <c r="J48" t="n">
         <v>20.9</v>
       </c>
@@ -2316,9 +2326,11 @@
         <v>-251727.7636367304</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22.4</v>
+      </c>
       <c r="J49" t="n">
         <v>20.9</v>
       </c>
@@ -2394,9 +2406,11 @@
         <v>-255633.3546367304</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>22.2</v>
+      </c>
       <c r="J51" t="n">
         <v>20.9</v>
       </c>
@@ -2433,9 +2447,11 @@
         <v>-255633.3546367304</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22.2</v>
+      </c>
       <c r="J52" t="n">
         <v>20.9</v>
       </c>
@@ -2628,9 +2644,11 @@
         <v>-261272.8428367304</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>22</v>
+      </c>
       <c r="J57" t="n">
         <v>20.9</v>
       </c>
@@ -2667,9 +2685,11 @@
         <v>-171856.669276286</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J58" t="n">
         <v>20.9</v>
       </c>
@@ -2706,9 +2726,11 @@
         <v>-194956.669276286</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J59" t="n">
         <v>20.9</v>
       </c>
@@ -2745,9 +2767,11 @@
         <v>-196566.258276286</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>22</v>
+      </c>
       <c r="J60" t="n">
         <v>20.9</v>
       </c>
@@ -2784,9 +2808,11 @@
         <v>-196566.258276286</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J61" t="n">
         <v>20.9</v>
       </c>
@@ -2823,9 +2849,11 @@
         <v>-180789.652776286</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J62" t="n">
         <v>20.9</v>
       </c>
@@ -2862,9 +2890,11 @@
         <v>-180991.652776286</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
       <c r="J63" t="n">
         <v>20.9</v>
       </c>
@@ -2901,9 +2931,11 @@
         <v>-180991.652776286</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J64" t="n">
         <v>20.9</v>
       </c>
@@ -2940,9 +2972,11 @@
         <v>-201807.375776286</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J65" t="n">
         <v>20.9</v>
       </c>
@@ -2979,9 +3013,11 @@
         <v>-201807.375776286</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J66" t="n">
         <v>20.9</v>
       </c>
@@ -3018,9 +3054,11 @@
         <v>-173222.098276286</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>21.6</v>
+      </c>
       <c r="J67" t="n">
         <v>20.9</v>
       </c>
@@ -3057,9 +3095,11 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>22</v>
+      </c>
       <c r="J68" t="n">
         <v>20.9</v>
       </c>
@@ -3096,9 +3136,11 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J69" t="n">
         <v>20.9</v>
       </c>
@@ -3252,9 +3294,11 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.8</v>
+      </c>
       <c r="J73" t="n">
         <v>20.9</v>
       </c>
@@ -3330,9 +3374,11 @@
         <v>-366308.009876286</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J75" t="n">
         <v>20.9</v>
       </c>
@@ -3681,9 +3727,11 @@
         <v>61992.15756326963</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>21.9</v>
+      </c>
       <c r="J84" t="n">
         <v>20.9</v>
       </c>
@@ -5631,9 +5679,11 @@
         <v>-99872.96834194794</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>21.7</v>
+      </c>
       <c r="J134" t="n">
         <v>20.9</v>
       </c>
@@ -5670,9 +5720,11 @@
         <v>-99862.96834194794</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>22</v>
+      </c>
       <c r="J135" t="n">
         <v>20.9</v>
       </c>
@@ -5709,9 +5761,11 @@
         <v>-93522.96834194794</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>22.1</v>
+      </c>
       <c r="J136" t="n">
         <v>20.9</v>
       </c>
@@ -5748,9 +5802,11 @@
         <v>-93522.96834194794</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J137" t="n">
         <v>20.9</v>
       </c>
@@ -5787,9 +5843,11 @@
         <v>-93522.96834194794</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J138" t="n">
         <v>20.9</v>
       </c>
@@ -5826,9 +5884,11 @@
         <v>-93522.96834194794</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J139" t="n">
         <v>20.9</v>
       </c>
@@ -5865,9 +5925,11 @@
         <v>-106376.2665419479</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J140" t="n">
         <v>20.9</v>
       </c>
@@ -5904,9 +5966,11 @@
         <v>-106376.2665419479</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>22.2</v>
+      </c>
       <c r="J141" t="n">
         <v>20.9</v>
       </c>
@@ -6021,9 +6085,11 @@
         <v>55093.58885805206</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J144" t="n">
         <v>20.9</v>
       </c>
@@ -7659,7 +7725,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
@@ -7776,7 +7842,7 @@
         <v>3441153.67961332</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
@@ -7815,7 +7881,7 @@
         <v>3885969.57851332</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
@@ -7854,7 +7920,7 @@
         <v>2885460.64081332</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
@@ -7893,7 +7959,7 @@
         <v>3384466.58121332</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
@@ -7932,7 +7998,7 @@
         <v>3024713.87261332</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
@@ -8088,7 +8154,7 @@
         <v>2864270.49211332</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
@@ -8361,7 +8427,7 @@
         <v>2886840.023301115</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
@@ -8400,7 +8466,7 @@
         <v>3088715.271501115</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
@@ -21426,7 +21492,7 @@
         <v>3520620.075483866</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
@@ -21434,15 +21500,13 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L539" t="n">
-        <v>1.167248803827751</v>
-      </c>
-      <c r="M539" t="n">
-        <v>1.004784688995215</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -21467,11 +21531,17 @@
         <v>3521155.743283866</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21500,11 +21570,17 @@
         <v>3521155.743283866</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21536,8 +21612,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21569,8 +21651,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21602,8 +21690,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21635,8 +21729,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21668,8 +21768,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21701,8 +21807,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21734,8 +21846,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21767,8 +21885,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21800,8 +21924,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21833,8 +21963,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21866,8 +22002,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21899,8 +22041,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21932,8 +22080,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21965,8 +22119,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21998,8 +22158,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22031,8 +22197,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22064,8 +22236,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22097,8 +22275,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22130,8 +22314,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22163,8 +22353,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22196,8 +22392,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22229,8 +22431,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22262,8 +22470,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22295,8 +22509,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22328,8 +22548,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22361,8 +22587,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22394,8 +22626,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22427,8 +22665,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22460,8 +22704,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22493,8 +22743,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22526,8 +22782,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22559,8 +22821,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22592,8 +22860,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22625,8 +22899,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22658,8 +22938,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22691,8 +22977,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22724,8 +23016,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22757,8 +23055,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22790,8 +23094,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22823,8 +23133,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22856,8 +23172,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22889,8 +23211,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22922,8 +23250,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22955,8 +23289,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22988,8 +23328,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23021,8 +23367,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23054,8 +23406,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23087,8 +23445,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23120,8 +23484,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23153,8 +23523,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23186,8 +23562,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23219,8 +23601,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23252,8 +23640,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23285,8 +23679,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23318,8 +23718,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23351,8 +23757,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23384,8 +23796,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23417,8 +23835,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23450,8 +23874,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23483,8 +23913,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23516,8 +23952,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23549,8 +23991,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -23582,8 +24030,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -23615,8 +24069,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -23648,8 +24108,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -23681,8 +24147,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -23714,8 +24186,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -23747,8 +24225,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -23780,8 +24264,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -23813,8 +24303,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -23846,8 +24342,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -23879,8 +24381,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -23912,8 +24420,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23945,8 +24459,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23978,8 +24498,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24011,8 +24537,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24044,8 +24576,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24077,8 +24615,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24110,8 +24654,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24143,8 +24693,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24176,8 +24732,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24209,8 +24771,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24242,8 +24810,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24275,8 +24849,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24308,8 +24888,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24341,8 +24927,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24374,8 +24966,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24407,8 +25005,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24440,8 +25044,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24473,8 +25083,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24506,8 +25122,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24539,8 +25161,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24572,8 +25200,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24605,8 +25239,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24638,8 +25278,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24671,8 +25317,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24704,8 +25356,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24737,8 +25395,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24770,8 +25434,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24803,8 +25473,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24836,8 +25512,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24869,8 +25551,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24902,8 +25590,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24935,8 +25629,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24968,8 +25668,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25001,8 +25707,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25034,8 +25746,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25067,8 +25785,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25100,8 +25824,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25133,8 +25863,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25166,8 +25902,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25199,8 +25941,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25232,8 +25980,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25265,8 +26019,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25298,8 +26058,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25331,8 +26097,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25364,8 +26136,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25394,11 +26172,17 @@
         <v>5688612.924004246</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25427,11 +26211,17 @@
         <v>6218358.215404246</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25460,11 +26250,17 @@
         <v>6764071.783215099</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25493,11 +26289,17 @@
         <v>6494005.771822792</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25526,11 +26328,17 @@
         <v>6808845.800322792</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25559,11 +26367,17 @@
         <v>6060962.356122792</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25592,11 +26406,17 @@
         <v>6128809.881122792</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25625,11 +26445,17 @@
         <v>6092374.426822792</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25658,11 +26484,17 @@
         <v>5382111.514522792</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25691,11 +26523,17 @@
         <v>5598776.233022792</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25724,11 +26562,17 @@
         <v>5598776.233022792</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25760,8 +26604,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25790,11 +26640,17 @@
         <v>5452796.298722792</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25826,8 +26682,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25856,11 +26718,17 @@
         <v>5421750.187322793</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25892,8 +26760,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25925,8 +26799,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25958,8 +26838,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25991,8 +26877,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26024,8 +26916,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26057,8 +26955,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26090,8 +26994,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26123,8 +27033,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26156,8 +27072,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26189,8 +27111,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26222,8 +27150,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26255,8 +27189,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26285,15 +27225,23 @@
         <v>6255596.962397581</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
+        <v>1.21988038277512</v>
+      </c>
+      <c r="M686" t="n">
+        <v>1.004784688995215</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -26351,7 +27299,7 @@
         <v>6245403.345497581</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26417,7 +27365,7 @@
         <v>6208071.610997582</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26483,7 +27431,7 @@
         <v>6226374.869397582</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26879,7 +27827,7 @@
         <v>5832798.654697581</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26945,7 +27893,7 @@
         <v>5834323.193197581</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26978,7 +27926,7 @@
         <v>5799148.669897581</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27011,7 +27959,7 @@
         <v>5777612.469042678</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27044,7 +27992,7 @@
         <v>5793704.470243072</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27077,7 +28025,7 @@
         <v>5754731.524969056</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27110,7 +28058,7 @@
         <v>5858152.196469056</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27143,7 +28091,7 @@
         <v>6135271.376769057</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27176,7 +28124,7 @@
         <v>6169382.484869056</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27209,7 +28157,7 @@
         <v>6269848.076969056</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27242,7 +28190,7 @@
         <v>6470024.136659026</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27275,7 +28223,7 @@
         <v>6237849.010359026</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27308,7 +28256,7 @@
         <v>6175208.843659027</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27341,7 +28289,7 @@
         <v>6198411.230359026</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27374,7 +28322,7 @@
         <v>6198411.230359026</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27407,7 +28355,7 @@
         <v>6247941.711759026</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27440,7 +28388,7 @@
         <v>6246941.711759026</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27473,7 +28421,7 @@
         <v>6203160.798359026</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27539,7 +28487,7 @@
         <v>6203178.980159027</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27572,7 +28520,7 @@
         <v>6144343.950059026</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27605,7 +28553,7 @@
         <v>6172688.108759026</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27638,7 +28586,7 @@
         <v>6079258.213359026</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27671,7 +28619,7 @@
         <v>6079258.213359026</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27704,7 +28652,7 @@
         <v>5882449.806859027</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27737,7 +28685,7 @@
         <v>5824544.430459026</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27770,7 +28718,7 @@
         <v>5546766.828959026</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27803,7 +28751,7 @@
         <v>5432920.562559026</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27836,7 +28784,7 @@
         <v>5351440.177659026</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27869,7 +28817,7 @@
         <v>5353385.813659026</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27902,7 +28850,7 @@
         <v>5473904.185459026</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27935,7 +28883,7 @@
         <v>5466404.185459026</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27968,7 +28916,7 @@
         <v>5676036.889659026</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28001,7 +28949,7 @@
         <v>5676036.889659026</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28034,7 +28982,7 @@
         <v>5625357.281159026</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28067,7 +29015,7 @@
         <v>5568043.032059026</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -28100,7 +29048,7 @@
         <v>5572359.896759026</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28133,7 +29081,7 @@
         <v>5583707.652659026</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28166,7 +29114,7 @@
         <v>5605677.990059026</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28199,7 +29147,7 @@
         <v>5602122.354259025</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28232,7 +29180,7 @@
         <v>5089085.882659025</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28265,7 +29213,7 @@
         <v>4935308.524659025</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28298,7 +29246,7 @@
         <v>4746306.306059025</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -28331,7 +29279,7 @@
         <v>4691540.719459025</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28364,7 +29312,7 @@
         <v>4799613.493659025</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28397,7 +29345,7 @@
         <v>4769228.266259025</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -28430,7 +29378,7 @@
         <v>5003678.982359025</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28463,7 +29411,7 @@
         <v>5003678.982359025</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28496,7 +29444,7 @@
         <v>5003678.982359025</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28529,7 +29477,7 @@
         <v>5003678.982359025</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28562,7 +29510,7 @@
         <v>5009214.007159024</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28595,7 +29543,7 @@
         <v>5009214.007159024</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28628,7 +29576,7 @@
         <v>5009214.007159024</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28661,7 +29609,7 @@
         <v>5009309.074559025</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28694,7 +29642,7 @@
         <v>5006917.496059025</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28727,7 +29675,7 @@
         <v>5006917.496059025</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28760,7 +29708,7 @@
         <v>5075395.449259025</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28793,7 +29741,7 @@
         <v>5125395.449259025</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28826,7 +29774,7 @@
         <v>5156364.821192359</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28859,7 +29807,7 @@
         <v>5153848.430792359</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28892,7 +29840,7 @@
         <v>5153848.430792359</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28925,7 +29873,7 @@
         <v>5140522.920592358</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28958,7 +29906,7 @@
         <v>5140522.920592358</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28991,7 +29939,7 @@
         <v>5126950.024292358</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29024,7 +29972,7 @@
         <v>5110791.351392359</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29134,6 +30082,6 @@
       <c r="M772" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest LBA.xlsx
+++ b/BackTest/2019-11-01 BackTest LBA.xlsx
@@ -972,11 +972,9 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>20.9</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>20.9</v>
       </c>
@@ -1054,11 +1050,9 @@
         <v>-607999.6329277215</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>21.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>20.9</v>
       </c>
@@ -1136,11 +1130,9 @@
         <v>-528248.0609277214</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>20.9</v>
       </c>
@@ -1177,11 +1169,9 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>20.9</v>
       </c>
@@ -1218,11 +1208,9 @@
         <v>-106097.6587277214</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>20.9</v>
       </c>
@@ -3053,11 +3041,9 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>20.9</v>
       </c>
@@ -3133,11 +3119,9 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>20.9</v>
       </c>
@@ -3174,11 +3158,9 @@
         <v>-231701.935376286</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>20.9</v>
       </c>
@@ -3215,11 +3197,9 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>20.9</v>
       </c>
@@ -3256,11 +3236,9 @@
         <v>-357700.935376286</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>21.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>20.9</v>
       </c>
@@ -3297,11 +3275,9 @@
         <v>-358564.801276286</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>20.9</v>
       </c>
@@ -3338,11 +3314,9 @@
         <v>-366308.009876286</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>20.9</v>
       </c>
@@ -3379,11 +3353,9 @@
         <v>62163.99286326964</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>20.9</v>
       </c>
@@ -3498,11 +3470,9 @@
         <v>-8872.833136730362</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>20.9</v>
       </c>
@@ -3656,11 +3626,9 @@
         <v>48876.23496326964</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>20.9</v>
       </c>
@@ -5647,11 +5615,9 @@
         <v>-99872.96834194794</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>21.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>20.9</v>
       </c>
@@ -7248,7 +7214,7 @@
         <v>2915987.843858052</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
@@ -7256,15 +7222,13 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.176818181818182</v>
-      </c>
-      <c r="M175" t="n">
-        <v>1.004784688995215</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7289,11 +7253,17 @@
         <v>2915987.843858052</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7322,11 +7292,17 @@
         <v>3751427.505858052</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7355,11 +7331,17 @@
         <v>3842095.422158052</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +7370,17 @@
         <v>4141814.905058052</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7424,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7451,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7490,8 +7490,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7523,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7556,8 +7568,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7586,15 +7604,23 @@
         <v>4741536.071313321</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>1.277296650717703</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1.004784688995215</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7619,7 +7645,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7652,7 +7678,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7685,7 +7711,7 @@
         <v>4578236.131713321</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7718,7 +7744,7 @@
         <v>3441153.67961332</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7751,7 +7777,7 @@
         <v>3885969.57851332</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7784,7 +7810,7 @@
         <v>2885460.64081332</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7817,7 +7843,7 @@
         <v>3384466.58121332</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8279,7 +8305,7 @@
         <v>3088715.271501115</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8312,7 +8338,7 @@
         <v>2875657.412801115</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8345,7 +8371,7 @@
         <v>2875657.412801115</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8378,7 +8404,7 @@
         <v>2914795.661101115</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8411,7 +8437,7 @@
         <v>2699539.651501115</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8444,7 +8470,7 @@
         <v>2400141.023001115</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8477,7 +8503,7 @@
         <v>2427593.522701115</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8510,7 +8536,7 @@
         <v>2247271.687201115</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8543,7 +8569,7 @@
         <v>2335026.142001115</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8576,7 +8602,7 @@
         <v>2234362.320701115</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8609,7 +8635,7 @@
         <v>2667914.718501115</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8642,7 +8668,7 @@
         <v>2538405.391701115</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
